--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43770</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43588</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43406</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43315</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43224</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43133</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43042</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42860</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1630000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1594000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1615000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1192000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1177000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1115000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1175000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1128000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1145000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1078000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1103000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1018000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1456000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1409000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1435000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1070000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1048000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1003000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1074000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1021000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1036000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>979000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1007000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>919000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="3">
         <v>174000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>185000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>180000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>122000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>129000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>112000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>101000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>109000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>99000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>96000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,34 +986,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>72000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1536000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1499000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1522000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1185000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1104000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1041000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1109000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1066000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1073000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1019000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1040000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>965000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E18" s="3">
         <v>94000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>93000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>74000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>66000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>62000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,31 +1211,32 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
       </c>
       <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
@@ -1211,195 +1245,210 @@
         <v>1000</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E21" s="3">
         <v>128000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>130000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>131000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>85000</v>
       </c>
       <c r="I21" s="3">
         <v>85000</v>
       </c>
       <c r="J21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K21" s="3">
         <v>78000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>84000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>66000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="E22" s="3">
         <v>22000</v>
       </c>
       <c r="F22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>12000</v>
       </c>
       <c r="K22" s="3">
         <v>12000</v>
       </c>
       <c r="L22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>11000</v>
       </c>
       <c r="O22" s="3">
         <v>11000</v>
       </c>
       <c r="P22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E23" s="3">
         <v>73000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>74000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>70000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>64000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>51000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>49000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>52000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="E24" s="3">
         <v>17000</v>
       </c>
       <c r="F24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G24" s="3">
         <v>14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>19000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E26" s="3">
         <v>56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>57000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>48000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>49000</v>
       </c>
       <c r="J26" s="3">
         <v>49000</v>
       </c>
       <c r="K26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L26" s="3">
         <v>34000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>49000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>31000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E27" s="3">
         <v>55000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>57000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>49000</v>
       </c>
       <c r="J27" s="3">
         <v>49000</v>
       </c>
       <c r="K27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L27" s="3">
         <v>34000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>31000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1588,11 +1649,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1600,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>17000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,31 +1773,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
@@ -1739,63 +1809,69 @@
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E33" s="3">
         <v>55000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>57000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>48000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>49000</v>
       </c>
       <c r="J33" s="3">
         <v>49000</v>
       </c>
       <c r="K33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L33" s="3">
         <v>51000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>31000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E35" s="3">
         <v>55000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>57000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>48000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>49000</v>
       </c>
       <c r="J35" s="3">
         <v>49000</v>
       </c>
       <c r="K35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L35" s="3">
         <v>51000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>31000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43770</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43679</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43588</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43406</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43224</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43133</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43042</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42860</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E41" s="3">
         <v>162000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>179000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>237000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>152000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>140000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>207000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>210000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1118000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1033000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1039000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1050000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>765000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>713000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>671000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>674000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>717000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>639000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>582000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>539000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2126,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>68000</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -2137,119 +2233,128 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>71000</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E45" s="3">
         <v>144000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>130000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>127000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>146000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>114000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>107000</v>
       </c>
       <c r="J45" s="3">
         <v>107000</v>
       </c>
       <c r="K45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="L45" s="3">
         <v>64000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>113000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>128000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1430000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1424000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1342000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1317000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1433000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1072000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>926000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>930000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>950000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>976000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>892000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>917000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>901000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E47" s="3">
         <v>42000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>41000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>42000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2362,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E48" s="3">
         <v>282000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>269000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>103000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>67000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>61000</v>
       </c>
       <c r="L48" s="3">
         <v>61000</v>
       </c>
       <c r="M48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="N48" s="3">
         <v>57000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>58000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>60000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2850000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2867000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2874000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2898000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2923000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1027000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1032000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1037000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1042000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1047000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1052000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1058000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1063000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E52" s="3">
         <v>85000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>89000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>81000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>91000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4711000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4700000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4627000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4607000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4563000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2202000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2060000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2061000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2073000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2101000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2019000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2050000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2042000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E57" s="3">
         <v>648000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>578000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>592000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>455000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>442000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>425000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>459000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>397000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>490000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>420000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>443000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>329000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E58" s="3">
         <v>64000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>151000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>37000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>49000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E59" s="3">
         <v>479000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>419000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>381000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>418000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>229000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>188000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>191000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>257000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>180000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>345000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1191000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1148000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1010000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>897000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>682000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>662000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>695000</v>
       </c>
       <c r="K60" s="3">
         <v>695000</v>
       </c>
       <c r="L60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="M60" s="3">
         <v>730000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>634000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>647000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>623000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1872000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1887000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1902000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2065000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1026000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>959000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>971000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>983000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>994000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1006000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1014000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1022000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E62" s="3">
         <v>248000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>243000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>222000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>102000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>83000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>70000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>68000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>53000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>48000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3294000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3320000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3288000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3145000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3078000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1791000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1693000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1736000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1746000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1779000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1694000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1714000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1693000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E72" s="3">
         <v>468000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>435000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>400000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>367000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>390000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>355000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>320000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>323000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>322000</v>
       </c>
       <c r="M72" s="3">
         <v>322000</v>
       </c>
       <c r="N72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="O72" s="3">
         <v>301000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>260000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1417000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1380000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1339000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1462000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1485000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>411000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>367000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>325000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>327000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>322000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>325000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>336000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>349000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43770</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43679</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43588</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43406</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43315</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43224</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43133</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43042</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42860</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E81" s="3">
         <v>55000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>57000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>48000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>49000</v>
       </c>
       <c r="J81" s="3">
         <v>49000</v>
       </c>
       <c r="K81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="L81" s="3">
         <v>51000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>31000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +3826,26 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E83" s="3">
         <v>33000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>36000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>11000</v>
       </c>
       <c r="I83" s="3">
         <v>11000</v>
@@ -3655,25 +3854,28 @@
         <v>11000</v>
       </c>
       <c r="K83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L83" s="3">
         <v>13000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E89" s="3">
         <v>116000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>95000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>178000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>86000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>88000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>80000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>88000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,22 +4381,23 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="E96" s="3">
         <v>-21000</v>
       </c>
       <c r="F96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-13000</v>
       </c>
       <c r="H96" s="3">
         <v>-13000</v>
@@ -4172,28 +4406,31 @@
         <v>-13000</v>
       </c>
       <c r="J96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="K96" s="3">
         <v>-14000</v>
       </c>
       <c r="L96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-14000</v>
       </c>
       <c r="N96" s="3">
         <v>-14000</v>
       </c>
       <c r="O96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-13000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-125000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-60000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-234000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1027000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-58000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-87000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-88000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-53000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-86000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>44000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>88000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-66000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43770</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43679</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43588</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43497</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43406</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43315</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43224</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43133</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43042</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42860</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1540000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1630000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1594000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1615000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1192000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1177000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1115000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1175000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1128000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1145000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1078000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1103000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1018000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1373000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1456000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1409000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1435000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1070000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1048000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1003000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1074000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1021000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1036000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>979000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1007000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>919000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E10" s="3">
         <v>167000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>174000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>185000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>180000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>122000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>129000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>112000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>107000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>109000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>99000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>96000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>99000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,37 +1006,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E14" s="3">
         <v>18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>72000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1030,14 +1050,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1452000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1536000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1499000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1522000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1185000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1104000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1041000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1109000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1066000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1073000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1019000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1040000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>965000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E18" s="3">
         <v>88000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>94000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>93000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>74000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>62000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>72000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>59000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,34 +1245,35 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1000</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
@@ -1248,207 +1282,222 @@
         <v>1000</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E21" s="3">
         <v>125000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>130000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>131000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>85000</v>
       </c>
       <c r="J21" s="3">
         <v>85000</v>
       </c>
       <c r="K21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="L21" s="3">
         <v>78000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>84000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E22" s="3">
         <v>21000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>22000</v>
       </c>
       <c r="F22" s="3">
         <v>22000</v>
       </c>
       <c r="G22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H22" s="3">
         <v>25000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>15000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>12000</v>
       </c>
       <c r="L22" s="3">
         <v>12000</v>
       </c>
       <c r="M22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11000</v>
       </c>
       <c r="P22" s="3">
         <v>11000</v>
       </c>
       <c r="Q22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E23" s="3">
         <v>69000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>73000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>74000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>70000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>58000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>51000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>49000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>52000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>43000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>17000</v>
       </c>
       <c r="F24" s="3">
         <v>17000</v>
       </c>
       <c r="G24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="H24" s="3">
         <v>14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>19000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E26" s="3">
         <v>60000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>56000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>57000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>56000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>49000</v>
       </c>
       <c r="K26" s="3">
         <v>49000</v>
       </c>
       <c r="L26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M26" s="3">
         <v>34000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>49000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E27" s="3">
         <v>59000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>57000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>55000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>49000</v>
       </c>
       <c r="K27" s="3">
         <v>49000</v>
       </c>
       <c r="L27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M27" s="3">
         <v>34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,16 +1693,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1652,11 +1713,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1664,11 +1725,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>17000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,34 +1843,37 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1000</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
@@ -1812,66 +1882,72 @@
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E33" s="3">
         <v>59000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>57000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>55000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>48000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>49000</v>
       </c>
       <c r="K33" s="3">
         <v>49000</v>
       </c>
       <c r="L33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M33" s="3">
         <v>51000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E35" s="3">
         <v>59000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>57000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>55000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>49000</v>
       </c>
       <c r="K35" s="3">
         <v>49000</v>
       </c>
       <c r="L35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M35" s="3">
         <v>51000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43770</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43679</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43588</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43497</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43406</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43315</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43224</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43133</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43042</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42860</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E41" s="3">
         <v>188000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>162000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>179000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>151000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>237000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>106000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>152000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>140000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>207000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>210000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1099000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1118000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1033000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1039000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1050000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>765000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>713000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>671000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>674000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>717000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>639000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>582000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>539000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2225,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>68000</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -2236,128 +2332,137 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>71000</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>179000</v>
+      </c>
+      <c r="E45" s="3">
         <v>143000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>144000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>130000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>127000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>146000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>114000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>107000</v>
       </c>
       <c r="K45" s="3">
         <v>107000</v>
       </c>
       <c r="L45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="M45" s="3">
         <v>64000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>134000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>113000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>128000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1430000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1424000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1342000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1317000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1433000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1072000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>926000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>930000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>950000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>976000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>892000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>917000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>901000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E47" s="3">
         <v>44000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>42000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>41000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>42000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13000</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2365,8 +2470,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E48" s="3">
         <v>281000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>282000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>281000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>269000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>103000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>67000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>70000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>61000</v>
       </c>
       <c r="M48" s="3">
         <v>61000</v>
       </c>
       <c r="N48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="O48" s="3">
         <v>57000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>58000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>60000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3987000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2850000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2867000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2874000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2898000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2923000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1027000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1032000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1037000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1042000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1047000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1052000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1058000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1063000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E52" s="3">
         <v>106000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>89000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>81000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>91000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6016000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4711000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4700000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4627000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4607000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4563000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2202000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2060000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2061000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2073000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2101000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2019000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2050000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2042000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E57" s="3">
         <v>527000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>648000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>578000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>592000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>455000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>442000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>425000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>459000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>397000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>490000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>420000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>443000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>329000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E58" s="3">
         <v>70000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>64000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>151000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>37000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>25000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E59" s="3">
         <v>531000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>479000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>419000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>381000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>418000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>229000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>188000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>257000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>180000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>345000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1128000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1191000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1148000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1010000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>897000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>682000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>662000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>695000</v>
       </c>
       <c r="L60" s="3">
         <v>695000</v>
       </c>
       <c r="M60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="N60" s="3">
         <v>730000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>634000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>647000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>623000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2801000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1851000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1872000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1887000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1902000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2065000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1026000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>959000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>971000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>983000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>994000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1006000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1014000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1022000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E62" s="3">
         <v>305000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>248000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>243000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>222000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>102000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>83000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>70000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>68000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>53000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>48000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4621000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3294000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3320000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3288000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3145000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3078000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1791000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1693000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1736000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1746000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1779000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1694000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1714000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1693000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E72" s="3">
         <v>506000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>468000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>435000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>367000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>390000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>355000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>320000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>323000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>322000</v>
       </c>
       <c r="N72" s="3">
         <v>322000</v>
       </c>
       <c r="O72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="P72" s="3">
         <v>301000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>260000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1417000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1380000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1339000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1462000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1485000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>411000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>367000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>325000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>327000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>322000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>325000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>336000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>349000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43770</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43679</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43588</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43497</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43406</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43315</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43224</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43133</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43042</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42860</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E81" s="3">
         <v>59000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>57000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>55000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>48000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>49000</v>
       </c>
       <c r="K81" s="3">
         <v>49000</v>
       </c>
       <c r="L81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="M81" s="3">
         <v>51000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,28 +4025,29 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E83" s="3">
         <v>35000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11000</v>
       </c>
       <c r="J83" s="3">
         <v>11000</v>
@@ -3857,25 +4056,28 @@
         <v>11000</v>
       </c>
       <c r="L83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M83" s="3">
         <v>13000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E89" s="3">
         <v>69000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>116000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>95000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>178000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>86000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>84000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>80000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1202000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,25 +4615,26 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-21000</v>
       </c>
       <c r="F96" s="3">
         <v>-21000</v>
       </c>
       <c r="G96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-13000</v>
       </c>
       <c r="I96" s="3">
         <v>-13000</v>
@@ -4409,28 +4643,31 @@
         <v>-13000</v>
       </c>
       <c r="K96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="L96" s="3">
         <v>-14000</v>
       </c>
       <c r="M96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-14000</v>
       </c>
       <c r="O96" s="3">
         <v>-14000</v>
       </c>
       <c r="P96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>927000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-60000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-234000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1027000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-87000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-88000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E102" s="3">
         <v>26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-86000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>88000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-66000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43952</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43770</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43679</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43588</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43497</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43406</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43315</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43224</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43133</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43042</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42860</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1764000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1757000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1540000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1630000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1594000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1615000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1192000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1177000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1115000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1175000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1128000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1145000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1078000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1103000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1018000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1574000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1373000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1456000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1409000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1435000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1070000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1048000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1003000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1074000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1021000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1036000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>979000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1007000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>919000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="3">
         <v>183000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>167000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>174000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>185000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>180000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>122000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>129000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>112000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>101000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>107000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>109000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>99000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>96000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>99000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,40 +1026,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E14" s="3">
         <v>29000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>72000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1053,14 +1073,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1679000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1452000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1536000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1499000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1522000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1185000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1104000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1041000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1109000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1066000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1073000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1019000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1040000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>965000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="3">
         <v>78000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>88000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>94000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>93000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>73000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>66000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>62000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>72000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,37 +1279,38 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
       </c>
       <c r="H20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
@@ -1285,219 +1319,234 @@
         <v>1000</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E21" s="3">
         <v>109000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>130000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>131000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>85000</v>
       </c>
       <c r="K21" s="3">
         <v>85000</v>
       </c>
       <c r="L21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="M21" s="3">
         <v>78000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>76000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>66000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>22000</v>
       </c>
       <c r="G22" s="3">
         <v>22000</v>
       </c>
       <c r="H22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I22" s="3">
         <v>25000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>12000</v>
       </c>
       <c r="M22" s="3">
         <v>12000</v>
       </c>
       <c r="N22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>11000</v>
       </c>
       <c r="Q22" s="3">
         <v>11000</v>
       </c>
       <c r="R22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E23" s="3">
         <v>45000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>69000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>73000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>74000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>70000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>58000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>51000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>49000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>52000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>43000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>17000</v>
       </c>
       <c r="G24" s="3">
         <v>17000</v>
       </c>
       <c r="H24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E26" s="3">
         <v>37000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>49000</v>
       </c>
       <c r="L26" s="3">
         <v>49000</v>
       </c>
       <c r="M26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N26" s="3">
         <v>34000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>49000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E27" s="3">
         <v>36000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>59000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>55000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>49000</v>
       </c>
       <c r="L27" s="3">
         <v>49000</v>
       </c>
       <c r="M27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N27" s="3">
         <v>34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,19 +1754,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1716,11 +1777,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1728,11 +1789,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>17000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,37 +1913,40 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1000</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
       </c>
       <c r="H32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="L32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
@@ -1885,69 +1955,75 @@
         <v>-1000</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E33" s="3">
         <v>36000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>59000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>55000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>49000</v>
       </c>
       <c r="L33" s="3">
         <v>49000</v>
       </c>
       <c r="M33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N33" s="3">
         <v>51000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E35" s="3">
         <v>36000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>59000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>55000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>49000</v>
       </c>
       <c r="L35" s="3">
         <v>49000</v>
       </c>
       <c r="M35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N35" s="3">
         <v>51000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43952</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43770</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43679</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43588</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43497</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43406</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43224</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43133</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43042</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42860</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E41" s="3">
         <v>276000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>162000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>179000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>237000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>193000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>106000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>152000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>140000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>207000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>210000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1070000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1099000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1118000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1033000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1039000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1050000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>765000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>713000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>671000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>674000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>717000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>639000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>582000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>539000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2324,10 +2420,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>68000</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -2335,137 +2431,146 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>71000</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E45" s="3">
         <v>179000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>143000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>144000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>130000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>127000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>146000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>114000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>107000</v>
       </c>
       <c r="L45" s="3">
         <v>107000</v>
       </c>
       <c r="M45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="N45" s="3">
         <v>64000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>134000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>113000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>128000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>81000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1525000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1430000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1424000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1342000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1317000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1433000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1072000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>926000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>930000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>950000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>976000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>892000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>917000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>901000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E47" s="3">
         <v>40000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>44000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>42000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>41000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>42000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2473,8 +2578,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E48" s="3">
         <v>351000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>282000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>281000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>269000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>103000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>61000</v>
       </c>
       <c r="N48" s="3">
         <v>61000</v>
       </c>
       <c r="O48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="P48" s="3">
         <v>57000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>58000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>60000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4006000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3987000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2850000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2867000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2874000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2898000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2923000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1027000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1032000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1037000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1042000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1047000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1052000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1058000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1063000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E52" s="3">
         <v>113000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>89000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>81000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>91000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>32000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5947000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6016000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4711000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4700000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4627000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4607000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4563000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2202000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2060000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2061000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2073000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2101000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2019000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2050000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2042000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>809000</v>
+      </c>
+      <c r="E57" s="3">
         <v>741000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>527000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>648000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>578000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>592000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>455000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>442000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>425000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>459000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>397000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>490000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>420000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>443000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>329000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E58" s="3">
         <v>83000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>70000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>64000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>151000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>37000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>25000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E59" s="3">
         <v>628000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>531000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>479000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>419000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>381000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>418000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>229000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>188000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>257000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>180000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>345000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1452000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1128000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1191000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1148000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1010000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>897000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>682000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>662000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>695000</v>
       </c>
       <c r="M60" s="3">
         <v>695000</v>
       </c>
       <c r="N60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="O60" s="3">
         <v>730000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>634000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>647000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>623000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2657000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2801000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1851000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1872000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1887000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1902000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2065000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1026000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>959000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>971000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>983000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>994000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1006000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1014000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1022000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E62" s="3">
         <v>355000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>305000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>248000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>243000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>222000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>102000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>83000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>70000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>68000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>55000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>54000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>53000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>48000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4510000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4621000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3294000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3320000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3288000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3145000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3078000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1791000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1693000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1736000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1746000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1779000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1694000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1714000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1693000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E72" s="3">
         <v>520000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>506000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>468000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>435000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>367000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>390000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>355000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>320000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>323000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>322000</v>
       </c>
       <c r="O72" s="3">
         <v>322000</v>
       </c>
       <c r="P72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="Q72" s="3">
         <v>301000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>260000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1395000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1417000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1380000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1339000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1462000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1485000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>411000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>367000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>325000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>327000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>322000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>325000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>336000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>349000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43952</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43770</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43679</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43588</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43497</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43406</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43315</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43224</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43133</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43042</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42860</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E81" s="3">
         <v>36000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>59000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>55000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>49000</v>
       </c>
       <c r="L81" s="3">
         <v>49000</v>
       </c>
       <c r="M81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="N81" s="3">
         <v>51000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,31 +4224,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E83" s="3">
         <v>33000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>35000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11000</v>
       </c>
       <c r="K83" s="3">
         <v>11000</v>
@@ -4059,25 +4258,28 @@
         <v>11000</v>
       </c>
       <c r="M83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N83" s="3">
         <v>13000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E89" s="3">
         <v>367000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>69000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>116000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>95000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>178000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>84000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>80000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>62000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,28 +4849,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-21000</v>
       </c>
       <c r="G96" s="3">
         <v>-21000</v>
       </c>
       <c r="H96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-13000</v>
       </c>
       <c r="J96" s="3">
         <v>-13000</v>
@@ -4646,28 +4880,31 @@
         <v>-13000</v>
       </c>
       <c r="L96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="M96" s="3">
         <v>-14000</v>
       </c>
       <c r="N96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-14000</v>
       </c>
       <c r="P96" s="3">
         <v>-14000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-13000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E100" s="3">
         <v>927000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-125000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-60000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-234000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1027000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-23000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-87000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-53000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E102" s="3">
         <v>92000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-86000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>88000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-66000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,212 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43952</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43770</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43679</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43588</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43497</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43406</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43315</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43224</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43133</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43042</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42860</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1764000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1757000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1540000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1630000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1594000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1615000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1192000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1177000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1115000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1175000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1128000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1145000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1103000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1018000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1517000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1564000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1574000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1373000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1456000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1409000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1435000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1070000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1048000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1003000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1074000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1021000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1036000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>979000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1007000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>919000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,52 +878,58 @@
         <v>200000</v>
       </c>
       <c r="E10" s="3">
+        <v>209000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G10" s="3">
         <v>183000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>167000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>174000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>185000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>180000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>122000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>129000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>112000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>101000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>107000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>109000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>99000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>96000</v>
       </c>
       <c r="R10" s="3">
         <v>99000</v>
       </c>
       <c r="S10" s="3">
+        <v>96000</v>
+      </c>
+      <c r="T10" s="3">
+        <v>99000</v>
+      </c>
+      <c r="U10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1004,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,46 +1063,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F14" s="3">
         <v>15000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>18000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>72000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-6000</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>-6000</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1076,14 +1116,20 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1181,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1205,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1664000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1679000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1452000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1536000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1499000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1522000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1185000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1104000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1041000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1109000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1066000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1073000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1019000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1040000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>965000</v>
       </c>
       <c r="S17" s="3">
         <v>1040000</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>965000</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F18" s="3">
         <v>100000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>78000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>88000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>94000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>95000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>93000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>73000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>74000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>66000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>62000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>72000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>59000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>63000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>53000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,220 +1346,246 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>2000</v>
       </c>
       <c r="G20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
       <c r="N20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F21" s="3">
         <v>152000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>109000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>125000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>128000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>130000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>131000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>24000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>85000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>85000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>78000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>76000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>84000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>71000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>73000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>66000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E22" s="3">
         <v>32000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="G22" s="3">
         <v>31000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>21000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>22000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>22000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>15000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>16000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>12000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>10000</v>
       </c>
       <c r="Q22" s="3">
         <v>11000</v>
       </c>
       <c r="R22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S22" s="3">
         <v>11000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="F23" s="3">
         <v>70000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>45000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>69000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>73000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>74000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>70000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>58000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>64000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>55000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>51000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>62000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>49000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>52000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>43000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1501,52 +1593,58 @@
         <v>17000</v>
       </c>
       <c r="E24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>19000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>12000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F26" s="3">
         <v>53000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>37000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>60000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>56000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>57000</v>
       </c>
       <c r="I26" s="3">
         <v>56000</v>
       </c>
       <c r="J26" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>56000</v>
+      </c>
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>48000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>49000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>49000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>34000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>43000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>36000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>49000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>31000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F27" s="3">
         <v>51000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>36000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>59000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>57000</v>
       </c>
       <c r="I27" s="3">
         <v>55000</v>
       </c>
       <c r="J27" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>48000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>49000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>49000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>34000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>43000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>49000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>31000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,38 +1890,38 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>17000</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>17000</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1932,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2050,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-2000</v>
       </c>
       <c r="G32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F33" s="3">
         <v>51000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>36000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>59000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>57000</v>
       </c>
       <c r="I33" s="3">
         <v>55000</v>
       </c>
       <c r="J33" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>48000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>49000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>49000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>51000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>49000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>31000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F35" s="3">
         <v>51000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>36000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>59000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>57000</v>
       </c>
       <c r="I35" s="3">
         <v>55000</v>
       </c>
       <c r="J35" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>48000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>49000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>49000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>51000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>49000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>31000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43770</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43679</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43588</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43497</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43406</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43315</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43224</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43133</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43042</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42860</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2400,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>182000</v>
+      </c>
+      <c r="F41" s="3">
         <v>197000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>276000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>188000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>162000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>179000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>151000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>237000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>193000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>106000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>152000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>144000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>125000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>140000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>207000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>210000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,84 +2514,96 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>962000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1052000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1032000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1070000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1099000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1118000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1033000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1039000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1050000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>765000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>713000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>671000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>674000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>717000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>639000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>582000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>539000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>78000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2423,169 +2615,187 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>68000</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>71000</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>71000</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F45" s="3">
         <v>184000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>179000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>143000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>144000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>130000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>127000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>146000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>114000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>107000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>107000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>64000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>134000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>113000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>128000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>81000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1401000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1413000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1525000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1430000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1424000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1342000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1317000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1433000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1072000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>926000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>930000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>950000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>976000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>892000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>917000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>901000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E47" s="3">
         <v>42000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="G47" s="3">
         <v>40000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>44000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>42000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>41000</v>
       </c>
       <c r="I47" s="3">
         <v>42000</v>
       </c>
       <c r="J47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="L47" s="3">
         <v>13000</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2599,114 +2809,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>349000</v>
+      </c>
+      <c r="F48" s="3">
         <v>354000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>351000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>281000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>282000</v>
       </c>
       <c r="H48" s="3">
         <v>281000</v>
       </c>
       <c r="I48" s="3">
+        <v>282000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K48" s="3">
         <v>269000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>103000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>67000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>70000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>66000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>61000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>61000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>57000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>58000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>60000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3925000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3966000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4006000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3987000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2850000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2867000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2874000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2898000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2923000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1027000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1032000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1037000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1042000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1047000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1052000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1058000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1063000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,49 +3045,55 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>117000</v>
+      </c>
+      <c r="F52" s="3">
         <v>132000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>113000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>106000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>85000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>89000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>81000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>91000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>36000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>32000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>28000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>20000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>17000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>18000</v>
       </c>
       <c r="Q52" s="3">
         <v>17000</v>
@@ -2862,10 +3102,16 @@
         <v>18000</v>
       </c>
       <c r="S52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="T52" s="3">
+        <v>18000</v>
+      </c>
+      <c r="U52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5723000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5875000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5947000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6016000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4711000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4700000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4627000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4607000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4563000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2202000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2060000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2061000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2073000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2101000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2019000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2050000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2042000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3272,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>806000</v>
+      </c>
+      <c r="F57" s="3">
         <v>809000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>741000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>527000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>648000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>578000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>592000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>455000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>442000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>425000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>459000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>397000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>490000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>420000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>443000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>329000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E58" s="3">
         <v>90000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="G58" s="3">
         <v>83000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>70000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>64000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>151000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>37000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>24000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>49000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>45000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>41000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>37000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>58000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>25000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>537000</v>
+      </c>
+      <c r="F59" s="3">
         <v>474000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>628000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>531000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>479000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>419000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>381000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>418000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>229000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>188000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>191000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>257000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>203000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>156000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>180000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>345000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1373000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1452000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1128000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1191000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1148000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1010000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>897000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>682000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>662000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>695000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>695000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>730000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>634000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>647000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>623000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2447000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2446000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2657000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2801000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1851000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1872000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1887000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1902000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2065000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1026000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>959000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>971000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>983000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>994000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1006000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1014000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1022000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>486000</v>
+      </c>
+      <c r="F62" s="3">
         <v>467000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>355000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>305000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>248000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>243000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>222000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>102000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>83000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>72000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>70000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>68000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>55000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>54000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>53000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>48000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4181000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4376000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4510000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4621000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3294000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3320000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3288000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3145000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3078000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1791000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1693000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1736000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1746000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1779000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1694000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1714000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1693000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>587000</v>
+      </c>
+      <c r="F72" s="3">
         <v>550000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>520000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>506000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>468000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>435000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>400000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>367000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>390000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>355000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>320000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>323000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>322000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>322000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>301000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>260000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1437000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1395000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1417000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1380000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1339000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1462000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1485000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>411000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>367000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>325000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>327000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>322000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>325000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>336000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>349000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43952</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43770</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43679</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43588</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43497</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43406</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43315</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43224</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43133</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43042</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42860</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F81" s="3">
         <v>51000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>36000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>59000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>57000</v>
       </c>
       <c r="I81" s="3">
         <v>55000</v>
       </c>
       <c r="J81" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>48000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>49000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>49000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>51000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>49000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>31000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4621,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F83" s="3">
         <v>50000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>33000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>35000</v>
       </c>
       <c r="G83" s="3">
         <v>33000</v>
       </c>
       <c r="H83" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J83" s="3">
         <v>34000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>36000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>11000</v>
       </c>
       <c r="M83" s="3">
         <v>11000</v>
       </c>
       <c r="N83" s="3">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O83" s="3">
         <v>11000</v>
       </c>
       <c r="P83" s="3">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q83" s="3">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="R83" s="3">
         <v>12000</v>
       </c>
       <c r="S83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>231000</v>
+      </c>
+      <c r="F89" s="3">
         <v>104000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>367000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>69000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>116000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>95000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>178000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>86000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>88000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>84000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>80000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>88000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>62000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5057,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4629,49 +5071,55 @@
         <v>-9000</v>
       </c>
       <c r="F91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-12000</v>
       </c>
       <c r="M91" s="3">
         <v>-6000</v>
       </c>
       <c r="N91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1202000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-3000</v>
       </c>
       <c r="H94" s="3">
         <v>-7000</v>
       </c>
       <c r="I94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-30000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1005000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-11000</v>
       </c>
       <c r="M94" s="3">
         <v>-6000</v>
       </c>
       <c r="N94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-2000</v>
       </c>
       <c r="S94" s="3">
         <v>-4000</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5316,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-22000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-21000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-21000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-13000</v>
       </c>
       <c r="L96" s="3">
         <v>-13000</v>
       </c>
       <c r="M96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-12000</v>
       </c>
       <c r="P96" s="3">
         <v>-14000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-14000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-13000</v>
       </c>
       <c r="S96" s="3">
         <v>-14000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-14000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5548,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-162000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>927000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-36000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-125000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-60000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-234000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1027000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-74000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-58000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-87000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-88000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-53000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5666,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-79000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>92000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>28000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-86000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>88000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-46000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-15000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>7000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43952</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43770</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43679</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43588</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43497</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43406</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43315</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43224</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43133</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43042</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42951</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42860</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42769</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1717000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1818000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1764000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1757000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1540000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1630000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1594000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1615000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1192000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1177000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1115000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1175000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1128000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1145000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1078000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1103000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1018000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1661000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1517000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1609000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1564000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1574000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1373000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1456000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1409000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1435000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1070000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1048000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1003000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1074000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1021000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1036000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>979000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1007000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>919000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E10" s="3">
         <v>200000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>209000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>183000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>167000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>174000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>185000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>122000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>101000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>107000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>109000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>99000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>96000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>99000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,49 +1085,52 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="3">
         <v>7000</v>
       </c>
       <c r="F14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G14" s="3">
         <v>15000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>72000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1122,14 +1141,17 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1748000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1615000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1708000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1664000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1679000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1452000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1536000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1499000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1522000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1185000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1104000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1041000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1109000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1073000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1019000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1040000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>965000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E18" s="3">
         <v>102000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>110000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>88000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>94000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>95000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>62000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>72000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,46 +1380,47 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>2000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
@@ -1396,78 +1429,84 @@
         <v>1000</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E21" s="3">
         <v>153000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>158000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>152000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>109000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>128000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>130000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>131000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>85000</v>
       </c>
       <c r="N21" s="3">
         <v>85000</v>
       </c>
       <c r="O21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="P21" s="3">
         <v>78000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>76000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>84000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>73000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>66000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,176 +1514,185 @@
         <v>27000</v>
       </c>
       <c r="E22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="F22" s="3">
         <v>32000</v>
       </c>
       <c r="G22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="H22" s="3">
         <v>31000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>21000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>22000</v>
       </c>
       <c r="J22" s="3">
         <v>22000</v>
       </c>
       <c r="K22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>12000</v>
       </c>
       <c r="P22" s="3">
         <v>12000</v>
       </c>
       <c r="Q22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R22" s="3">
         <v>11000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>11000</v>
       </c>
       <c r="T22" s="3">
         <v>11000</v>
       </c>
       <c r="U22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="V22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>78000</v>
+        <v>105000</v>
       </c>
       <c r="E23" s="3">
         <v>78000</v>
       </c>
       <c r="F23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="G23" s="3">
         <v>70000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>45000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>69000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>73000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>74000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>70000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>58000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>64000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>51000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>62000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>49000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>52000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>17000</v>
       </c>
       <c r="J24" s="3">
         <v>17000</v>
       </c>
       <c r="K24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E26" s="3">
         <v>61000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>49000</v>
       </c>
       <c r="O26" s="3">
         <v>49000</v>
       </c>
       <c r="P26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q26" s="3">
         <v>34000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>49000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>31000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E27" s="3">
         <v>62000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>60000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>49000</v>
       </c>
       <c r="O27" s="3">
         <v>49000</v>
       </c>
       <c r="P27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q27" s="3">
         <v>34000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>31000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,40 +1936,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1920,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>17000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,46 +2122,49 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1000</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="O32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
@@ -2104,78 +2173,84 @@
         <v>-1000</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E33" s="3">
         <v>62000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>60000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>49000</v>
       </c>
       <c r="O33" s="3">
         <v>49000</v>
       </c>
       <c r="P33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q33" s="3">
         <v>51000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>31000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E35" s="3">
         <v>62000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>60000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>49000</v>
       </c>
       <c r="O35" s="3">
         <v>49000</v>
       </c>
       <c r="P35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q35" s="3">
         <v>51000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>31000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43770</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43679</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43588</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43497</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43406</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43315</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43224</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43133</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43042</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42951</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42860</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42769</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E41" s="3">
         <v>171000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>182000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>197000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>276000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>188000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>162000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>179000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>237000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>193000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>106000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>152000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>144000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>125000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>140000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>207000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>210000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,75 +2609,81 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="E43" s="3">
         <v>962000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1052000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1032000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1070000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1099000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1118000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1033000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1039000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1050000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>765000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>713000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>671000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>674000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>717000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>639000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>582000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>539000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>78000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -2605,8 +2700,8 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2621,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>68000</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
@@ -2632,164 +2727,173 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>71000</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E45" s="3">
         <v>78000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>167000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>184000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>179000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>143000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>144000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>130000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>127000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>146000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>114000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>107000</v>
       </c>
       <c r="O45" s="3">
         <v>107000</v>
       </c>
       <c r="P45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>64000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>134000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>113000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>128000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>81000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1289000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1401000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1413000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1525000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1430000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1424000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1342000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1317000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1433000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1072000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>926000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>930000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>950000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>976000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>892000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>917000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>901000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E47" s="3">
         <v>18000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>42000</v>
       </c>
       <c r="F47" s="3">
         <v>42000</v>
       </c>
       <c r="G47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="H47" s="3">
         <v>40000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>44000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>42000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>41000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13000</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2797,8 +2901,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2815,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E48" s="3">
         <v>344000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>349000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>354000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>351000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>281000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>282000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>281000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>269000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>103000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>70000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>61000</v>
       </c>
       <c r="Q48" s="3">
         <v>61000</v>
       </c>
       <c r="R48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="S48" s="3">
         <v>57000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>58000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>60000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3893000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3925000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3966000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4006000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3987000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2850000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2867000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2874000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2898000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2923000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1027000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1032000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1037000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1042000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1047000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1052000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1058000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1063000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E52" s="3">
         <v>147000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>117000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>132000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>113000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>85000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>89000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>81000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>32000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5812000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5723000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5875000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5947000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6016000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4711000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4700000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4627000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4607000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4563000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2202000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2060000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2061000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2073000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2101000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2019000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2050000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2042000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>843000</v>
+      </c>
+      <c r="E57" s="3">
         <v>517000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>806000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>809000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>741000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>527000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>648000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>578000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>592000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>455000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>442000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>425000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>459000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>397000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>490000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>420000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>443000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>329000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E58" s="3">
         <v>68000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>90000</v>
       </c>
       <c r="F58" s="3">
         <v>90000</v>
       </c>
       <c r="G58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="H58" s="3">
         <v>83000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>70000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>64000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>151000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>49000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>45000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>41000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>58000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>25000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E59" s="3">
         <v>690000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>537000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>474000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>628000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>531000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>479000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>419000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>381000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>418000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>229000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>188000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>191000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>257000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>203000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>180000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>345000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1275000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1433000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1373000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1452000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1128000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1191000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1148000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1010000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>897000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>682000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>662000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>695000</v>
       </c>
       <c r="P60" s="3">
         <v>695000</v>
       </c>
       <c r="Q60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="R60" s="3">
         <v>730000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>634000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>647000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>623000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2390000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2447000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2446000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2657000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2801000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1851000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1872000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1887000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1902000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2065000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1026000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>959000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>971000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>983000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>994000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1006000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1014000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1022000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E62" s="3">
         <v>449000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>486000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>467000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>355000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>305000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>248000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>243000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>222000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>102000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>83000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>70000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>68000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>54000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>53000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>48000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4235000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4181000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4376000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4510000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4621000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3294000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3320000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3288000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3145000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3078000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1791000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1693000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1736000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1746000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1779000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1694000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1714000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1693000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E72" s="3">
         <v>627000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>587000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>550000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>520000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>506000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>468000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>435000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>367000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>390000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>355000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>320000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>323000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>322000</v>
       </c>
       <c r="R72" s="3">
         <v>322000</v>
       </c>
       <c r="S72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="T72" s="3">
         <v>301000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>260000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1542000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1499000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1437000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1395000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1417000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1380000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1339000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1462000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1485000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>411000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>367000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>325000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>327000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>322000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>325000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>336000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>349000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43952</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43770</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43679</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43588</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43497</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43406</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43315</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43224</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43133</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43042</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42951</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42860</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42769</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E81" s="3">
         <v>62000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>60000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>49000</v>
       </c>
       <c r="O81" s="3">
         <v>49000</v>
       </c>
       <c r="P81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Q81" s="3">
         <v>51000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>31000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,40 +4820,41 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48000</v>
+        <v>42000</v>
       </c>
       <c r="E83" s="3">
         <v>48000</v>
       </c>
       <c r="F83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>11000</v>
       </c>
       <c r="N83" s="3">
         <v>11000</v>
@@ -4665,25 +4863,28 @@
         <v>11000</v>
       </c>
       <c r="P83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>13000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E89" s="3">
         <v>53000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>231000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>104000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>367000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>69000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>116000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>95000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>178000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>86000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>84000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-35000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>88000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>62000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5327,28 +5560,28 @@
         <v>-22000</v>
       </c>
       <c r="E96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="F96" s="3">
         <v>-21000</v>
       </c>
       <c r="G96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-23000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-21000</v>
       </c>
       <c r="J96" s="3">
         <v>-21000</v>
       </c>
       <c r="K96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-13000</v>
       </c>
       <c r="M96" s="3">
         <v>-13000</v>
@@ -5357,28 +5590,31 @@
         <v>-13000</v>
       </c>
       <c r="O96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="P96" s="3">
         <v>-14000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-14000</v>
       </c>
       <c r="S96" s="3">
         <v>-14000</v>
       </c>
       <c r="T96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-13000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-239000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-162000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>927000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-125000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-234000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1027000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-74000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-87000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-88000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-53000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-79000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>92000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-86000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>88000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-66000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43952</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43770</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43679</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43588</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43497</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43406</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43315</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43224</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43133</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43042</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42951</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42860</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42769</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1836000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1878000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1717000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1818000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1764000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1757000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1540000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1630000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1594000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1615000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1192000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1177000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1115000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1175000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1128000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1145000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1078000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1103000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1018000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1604000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1661000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1517000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1609000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1564000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1574000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1373000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1456000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1409000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1435000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1070000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1048000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1003000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1074000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1021000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1036000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>979000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1007000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>919000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E10" s="3">
         <v>217000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>209000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>183000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>174000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>180000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>122000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>129000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>112000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>101000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>107000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>109000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>99000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>96000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>99000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,52 +1105,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7000</v>
       </c>
       <c r="F14" s="3">
         <v>7000</v>
       </c>
       <c r="G14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H14" s="3">
         <v>15000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>72000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1144,14 +1164,17 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1748000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1615000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1708000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1664000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1679000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1452000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1536000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1499000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1522000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1185000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1104000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1041000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1109000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1066000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1073000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1019000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1040000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>965000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E18" s="3">
         <v>130000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>102000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>110000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>94000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>62000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>72000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>63000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,49 +1414,50 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
       </c>
       <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>2000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
@@ -1432,267 +1466,282 @@
         <v>1000</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E21" s="3">
         <v>174000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>153000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>158000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>109000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>128000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>130000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>131000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>85000</v>
       </c>
       <c r="O21" s="3">
         <v>85000</v>
       </c>
       <c r="P21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>78000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>76000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>84000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>71000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>73000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="E22" s="3">
         <v>27000</v>
       </c>
       <c r="F22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="G22" s="3">
         <v>32000</v>
       </c>
       <c r="H22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="I22" s="3">
         <v>31000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>22000</v>
       </c>
       <c r="K22" s="3">
         <v>22000</v>
       </c>
       <c r="L22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M22" s="3">
         <v>25000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>12000</v>
       </c>
       <c r="Q22" s="3">
         <v>12000</v>
       </c>
       <c r="R22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S22" s="3">
         <v>11000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>11000</v>
       </c>
       <c r="U22" s="3">
         <v>11000</v>
       </c>
       <c r="V22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="W22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E23" s="3">
         <v>105000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>78000</v>
       </c>
       <c r="F23" s="3">
         <v>78000</v>
       </c>
       <c r="G23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="H23" s="3">
         <v>70000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>45000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>69000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>73000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>70000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>58000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>62000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>49000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>52000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E24" s="3">
         <v>23000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>17000</v>
       </c>
       <c r="K24" s="3">
         <v>17000</v>
       </c>
       <c r="L24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>19000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1802,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,123 +1814,129 @@
         <v>82000</v>
       </c>
       <c r="E26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F26" s="3">
         <v>61000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>56000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>49000</v>
       </c>
       <c r="P26" s="3">
         <v>49000</v>
       </c>
       <c r="Q26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R26" s="3">
         <v>34000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>49000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>31000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E27" s="3">
         <v>81000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>60000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>51000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>59000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>55000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>49000</v>
       </c>
       <c r="P27" s="3">
         <v>49000</v>
       </c>
       <c r="Q27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R27" s="3">
         <v>34000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>31000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1965,17 +2026,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1983,11 +2044,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>17000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,49 +2192,52 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
       </c>
       <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>-1000</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="P32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
@@ -2176,81 +2246,87 @@
         <v>-1000</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E33" s="3">
         <v>81000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>60000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>59000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>55000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>55000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>49000</v>
       </c>
       <c r="P33" s="3">
         <v>49000</v>
       </c>
       <c r="Q33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R33" s="3">
         <v>51000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>31000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E35" s="3">
         <v>81000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>60000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>59000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>55000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>55000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>49000</v>
       </c>
       <c r="P35" s="3">
         <v>49000</v>
       </c>
       <c r="Q35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R35" s="3">
         <v>51000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>31000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43952</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43770</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43679</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43588</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43497</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43406</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43315</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43224</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43133</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43042</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42951</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42860</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42769</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E41" s="3">
         <v>261000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>171000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>182000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>197000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>276000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>188000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>162000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>179000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>151000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>237000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>193000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>106000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>152000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>144000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>125000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>140000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>207000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>210000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,81 +2702,87 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1064000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1023000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>962000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1052000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1032000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1070000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1099000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1118000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1033000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1039000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1050000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>765000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>713000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>671000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>674000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>717000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>639000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>582000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>539000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>78000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -2703,8 +2799,8 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2719,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
         <v>68000</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
@@ -2730,138 +2826,147 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3">
         <v>71000</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E45" s="3">
         <v>156000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>78000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>184000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>179000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>143000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>144000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>130000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>127000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>146000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>114000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>107000</v>
       </c>
       <c r="P45" s="3">
         <v>107000</v>
       </c>
       <c r="Q45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="R45" s="3">
         <v>64000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>134000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>113000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>128000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>81000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1440000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1289000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1401000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1413000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1525000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1430000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1424000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1342000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1317000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1433000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1072000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>926000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>930000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>950000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>976000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>892000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>917000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>901000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2869,34 +2974,34 @@
         <v>47000</v>
       </c>
       <c r="E47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="F47" s="3">
         <v>18000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>42000</v>
       </c>
       <c r="G47" s="3">
         <v>42000</v>
       </c>
       <c r="H47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I47" s="3">
         <v>40000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>44000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>41000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2904,8 +3009,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E48" s="3">
         <v>333000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>344000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>349000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>354000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>351000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>281000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>282000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>281000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>269000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>103000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>67000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>70000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>66000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>61000</v>
       </c>
       <c r="R48" s="3">
         <v>61000</v>
       </c>
       <c r="S48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="T48" s="3">
         <v>57000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>58000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>60000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4098000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3893000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3925000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3966000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4006000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3987000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2850000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2867000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2874000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2898000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2923000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1027000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1032000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1037000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1042000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1047000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1052000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1058000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1063000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E52" s="3">
         <v>99000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>147000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>117000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>132000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>113000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>106000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>85000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>89000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>81000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>91000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>32000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5905000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5812000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5723000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5875000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5947000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6016000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4711000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4700000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4627000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4607000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4563000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2202000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2060000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2061000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2073000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2101000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2019000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2050000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2042000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E57" s="3">
         <v>843000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>517000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>806000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>809000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>741000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>527000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>648000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>578000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>592000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>455000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>442000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>425000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>459000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>397000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>490000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>420000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>443000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>329000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E58" s="3">
         <v>104000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>68000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>90000</v>
       </c>
       <c r="G58" s="3">
         <v>90000</v>
       </c>
       <c r="H58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="I58" s="3">
         <v>83000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>70000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>64000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>151000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>37000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>49000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>45000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>41000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>58000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>25000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E59" s="3">
         <v>451000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>690000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>537000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>474000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>628000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>531000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>479000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>419000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>381000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>418000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>229000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>188000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>191000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>257000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>156000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>180000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>345000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1398000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1275000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1433000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1373000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1452000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1128000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1191000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1148000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1010000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>897000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>682000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>662000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>695000</v>
       </c>
       <c r="Q60" s="3">
         <v>695000</v>
       </c>
       <c r="R60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="S60" s="3">
         <v>730000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>634000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>647000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>623000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2461000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2390000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2447000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2446000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2657000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2801000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1851000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1872000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1887000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1902000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2065000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1026000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>959000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>971000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>983000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>994000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1006000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1014000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1022000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E62" s="3">
         <v>437000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>449000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>486000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>467000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>355000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>305000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>248000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>243000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>222000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>102000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>83000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>70000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>68000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>55000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>53000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>48000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4287000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4235000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4181000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4376000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4510000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4621000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3294000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3320000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3288000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3145000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3078000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1791000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1693000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1736000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1746000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1779000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1694000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1714000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1693000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E72" s="3">
         <v>687000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>627000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>587000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>550000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>520000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>506000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>468000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>435000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>367000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>390000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>355000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>320000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>323000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>322000</v>
       </c>
       <c r="S72" s="3">
         <v>322000</v>
       </c>
       <c r="T72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="U72" s="3">
         <v>301000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>260000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1577000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1542000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1499000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1437000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1395000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1417000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1380000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1339000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1462000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1485000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>411000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>367000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>325000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>327000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>322000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>325000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>336000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>349000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43952</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43770</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43679</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43588</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43497</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43406</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43315</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43224</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43133</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43042</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42951</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42860</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42769</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E81" s="3">
         <v>81000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>60000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>59000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>55000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>55000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>49000</v>
       </c>
       <c r="P81" s="3">
         <v>49000</v>
       </c>
       <c r="Q81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="R81" s="3">
         <v>51000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>31000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,43 +5019,44 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E83" s="3">
         <v>42000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>48000</v>
       </c>
       <c r="F83" s="3">
         <v>48000</v>
       </c>
       <c r="G83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>11000</v>
       </c>
       <c r="O83" s="3">
         <v>11000</v>
@@ -4866,25 +5065,28 @@
         <v>11000</v>
       </c>
       <c r="Q83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R83" s="3">
         <v>13000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E89" s="3">
         <v>189000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>231000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>104000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>367000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>69000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>116000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>178000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>84000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>80000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-35000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>88000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>62000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5563,28 +5797,28 @@
         <v>-22000</v>
       </c>
       <c r="F96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="G96" s="3">
         <v>-21000</v>
       </c>
       <c r="H96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-23000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-21000</v>
       </c>
       <c r="K96" s="3">
         <v>-21000</v>
       </c>
       <c r="L96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-13000</v>
       </c>
       <c r="N96" s="3">
         <v>-13000</v>
@@ -5593,28 +5827,31 @@
         <v>-13000</v>
       </c>
       <c r="P96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="Q96" s="3">
         <v>-14000</v>
       </c>
       <c r="R96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-14000</v>
       </c>
       <c r="T96" s="3">
         <v>-14000</v>
       </c>
       <c r="U96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-13000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-239000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-162000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>927000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-125000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-234000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1027000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-58000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-87000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-88000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-53000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E102" s="3">
         <v>90000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-79000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>92000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-86000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>88000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-15000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-66000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E7" s="2">
         <v>44407</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44225</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43952</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43770</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43679</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43588</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43497</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43406</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43315</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43224</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43133</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43042</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42951</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42860</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42769</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1898000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1836000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1878000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1717000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1818000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1764000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1757000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1540000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1630000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1594000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1615000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1192000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1177000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1115000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1175000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1128000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1145000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1078000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1103000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1018000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1685000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1604000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1661000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1517000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1609000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1564000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1574000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1373000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1456000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1409000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1435000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1070000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1048000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1003000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1074000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1021000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1036000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>979000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1007000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>919000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E10" s="3">
         <v>232000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>217000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>209000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>183000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>167000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>174000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>180000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>122000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>129000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>112000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>101000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>107000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>109000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>99000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>96000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>99000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,55 +1125,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7000</v>
       </c>
       <c r="G14" s="3">
         <v>7000</v>
       </c>
       <c r="H14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I14" s="3">
         <v>15000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>72000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1167,14 +1187,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1703000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1748000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1615000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1708000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1664000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1679000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1452000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1536000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1499000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1522000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1185000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1104000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1041000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1109000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1066000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1073000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1019000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1040000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>965000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E18" s="3">
         <v>133000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>130000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>102000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>78000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>88000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>94000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>73000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>62000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>72000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>59000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>63000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,52 +1448,53 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
       </c>
       <c r="M20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>2000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
@@ -1469,84 +1503,90 @@
         <v>1000</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E21" s="3">
         <v>171000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>174000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>153000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>158000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>152000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>109000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>125000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>130000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>131000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>85000</v>
       </c>
       <c r="P21" s="3">
         <v>85000</v>
       </c>
       <c r="Q21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="R21" s="3">
         <v>78000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>76000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>84000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>71000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>66000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,194 +1594,203 @@
         <v>26000</v>
       </c>
       <c r="E22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="F22" s="3">
         <v>27000</v>
       </c>
       <c r="G22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="H22" s="3">
         <v>32000</v>
       </c>
       <c r="I22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J22" s="3">
         <v>31000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>22000</v>
       </c>
       <c r="L22" s="3">
         <v>22000</v>
       </c>
       <c r="M22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N22" s="3">
         <v>25000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>12000</v>
       </c>
       <c r="R22" s="3">
         <v>12000</v>
       </c>
       <c r="S22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="T22" s="3">
         <v>11000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>11000</v>
       </c>
       <c r="V22" s="3">
         <v>11000</v>
       </c>
       <c r="W22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E23" s="3">
         <v>108000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>105000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>78000</v>
       </c>
       <c r="G23" s="3">
         <v>78000</v>
       </c>
       <c r="H23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="I23" s="3">
         <v>70000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>69000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>70000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>62000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>49000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>52000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>43000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>26000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>17000</v>
       </c>
       <c r="L24" s="3">
         <v>17000</v>
       </c>
       <c r="M24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>19000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>82000</v>
+        <v>71000</v>
       </c>
       <c r="E26" s="3">
         <v>82000</v>
       </c>
       <c r="F26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="G26" s="3">
         <v>61000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>49000</v>
       </c>
       <c r="Q26" s="3">
         <v>49000</v>
       </c>
       <c r="R26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="S26" s="3">
         <v>34000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>43000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>49000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>31000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E27" s="3">
         <v>82000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>81000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>51000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>59000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>55000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>49000</v>
       </c>
       <c r="Q27" s="3">
         <v>49000</v>
       </c>
       <c r="R27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="S27" s="3">
         <v>34000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>43000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>49000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>31000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2029,17 +2090,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2047,11 +2108,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>17000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,52 +2262,55 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1000</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
@@ -2249,84 +2319,90 @@
         <v>-1000</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E33" s="3">
         <v>82000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>81000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>59000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>55000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>55000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>49000</v>
       </c>
       <c r="Q33" s="3">
         <v>49000</v>
       </c>
       <c r="R33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="S33" s="3">
         <v>51000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>49000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>31000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E35" s="3">
         <v>82000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>81000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>59000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>55000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>55000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>49000</v>
       </c>
       <c r="Q35" s="3">
         <v>49000</v>
       </c>
       <c r="R35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="S35" s="3">
         <v>51000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>49000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>31000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E38" s="2">
         <v>44407</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44225</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43952</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43770</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43679</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43588</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43497</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43406</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43315</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43224</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43133</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43042</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42951</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42860</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42769</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E41" s="3">
         <v>133000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>261000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>171000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>182000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>197000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>276000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>188000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>162000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>179000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>151000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>237000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>193000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>106000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>152000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>144000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>125000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>140000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>207000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>210000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2795,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1064000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1023000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>962000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1052000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1032000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1070000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1099000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1118000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1033000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1039000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1050000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>765000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>713000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>671000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>674000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>717000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>639000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>582000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>539000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,11 +2877,11 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>78000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -2802,8 +2898,8 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2818,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>68000</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
@@ -2829,182 +2925,191 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="3">
         <v>71000</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E45" s="3">
         <v>146000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>156000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>184000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>179000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>143000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>144000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>130000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>127000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>146000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>114000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>107000</v>
       </c>
       <c r="Q45" s="3">
         <v>107000</v>
       </c>
       <c r="R45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="S45" s="3">
         <v>64000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>134000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>113000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>128000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>81000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1343000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1440000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1289000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1401000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1413000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1525000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1430000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1424000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1342000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1317000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1433000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1072000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>926000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>930000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>950000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>976000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>892000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>917000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>901000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="E47" s="3">
         <v>47000</v>
       </c>
       <c r="F47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G47" s="3">
         <v>18000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>42000</v>
       </c>
       <c r="H47" s="3">
         <v>42000</v>
       </c>
       <c r="I47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J47" s="3">
         <v>40000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>44000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>41000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13000</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3012,8 +3117,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3030,8 +3135,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3039,129 +3147,135 @@
         <v>326000</v>
       </c>
       <c r="E48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="F48" s="3">
         <v>333000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>344000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>349000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>354000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>351000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>281000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>282000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>281000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>269000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>103000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>67000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>70000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>66000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>61000</v>
       </c>
       <c r="S48" s="3">
         <v>61000</v>
       </c>
       <c r="T48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="U48" s="3">
         <v>57000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>58000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>60000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4071000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4098000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3893000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3925000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3966000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4006000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3987000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2850000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2867000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2874000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2898000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2923000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1027000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1032000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1037000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1042000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1047000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1052000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1058000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1063000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E52" s="3">
         <v>91000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>99000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>147000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>117000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>132000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>113000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>106000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>85000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>89000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>81000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>32000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5916000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5905000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5812000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5723000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5875000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5947000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6016000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4711000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4700000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4627000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4607000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4563000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2202000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2061000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2073000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2101000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2019000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2050000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2042000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3665,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>828000</v>
+      </c>
+      <c r="E57" s="3">
         <v>846000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>843000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>517000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>806000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>809000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>741000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>527000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>648000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>578000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>592000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>455000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>442000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>425000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>459000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>397000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>490000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>420000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>443000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>329000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E58" s="3">
         <v>112000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>104000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>68000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>90000</v>
       </c>
       <c r="H58" s="3">
         <v>90000</v>
       </c>
       <c r="I58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J58" s="3">
         <v>83000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>70000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>151000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>37000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>49000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>45000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>41000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>37000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>58000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>25000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E59" s="3">
         <v>425000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>451000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>690000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>537000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>474000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>628000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>531000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>479000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>419000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>381000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>418000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>229000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>188000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>191000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>257000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>156000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>180000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>345000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1383000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1398000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1275000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1433000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1373000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1452000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1128000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1191000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1148000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1010000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>897000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>682000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>662000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>695000</v>
       </c>
       <c r="R60" s="3">
         <v>695000</v>
       </c>
       <c r="S60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="T60" s="3">
         <v>730000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>634000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>647000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>623000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2461000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2390000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2447000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2446000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2657000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2801000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1851000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1872000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1887000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1902000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2065000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1026000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>959000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>971000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>983000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>994000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1006000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1014000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1022000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E62" s="3">
         <v>433000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>437000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>449000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>486000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>467000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>355000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>305000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>248000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>243000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>222000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>102000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>83000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>70000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>68000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>55000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>54000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>53000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>48000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4281000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4287000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4235000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4181000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4376000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4510000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4621000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3294000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3320000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3288000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3145000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3078000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1791000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1693000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1736000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1746000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1779000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1694000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1714000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1693000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E72" s="3">
         <v>747000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>687000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>627000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>587000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>550000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>520000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>506000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>468000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>435000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>400000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>367000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>390000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>355000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>320000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>323000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>322000</v>
       </c>
       <c r="T72" s="3">
         <v>322000</v>
       </c>
       <c r="U72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="V72" s="3">
         <v>301000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>260000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1618000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1577000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1542000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1499000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1437000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1395000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1417000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1380000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1339000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1462000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1485000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>411000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>367000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>325000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>327000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>322000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>325000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>336000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>349000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E80" s="2">
         <v>44407</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44225</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43952</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43770</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43679</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43588</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43497</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43406</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43315</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43224</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43133</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43042</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42951</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42860</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42769</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E81" s="3">
         <v>82000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>81000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>59000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>55000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>55000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>49000</v>
       </c>
       <c r="Q81" s="3">
         <v>49000</v>
       </c>
       <c r="R81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="S81" s="3">
         <v>51000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>49000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>31000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,46 +5218,47 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E83" s="3">
         <v>37000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>48000</v>
       </c>
       <c r="G83" s="3">
         <v>48000</v>
       </c>
       <c r="H83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>33000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>11000</v>
       </c>
       <c r="P83" s="3">
         <v>11000</v>
@@ -5068,25 +5267,28 @@
         <v>11000</v>
       </c>
       <c r="R83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S83" s="3">
         <v>13000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E89" s="3">
         <v>92000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>189000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>53000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>231000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>104000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>367000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>69000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>116000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>178000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>88000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>84000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>80000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-35000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>88000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>62000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-252000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,13 +6018,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="E96" s="3">
         <v>-22000</v>
@@ -5800,28 +6034,28 @@
         <v>-22000</v>
       </c>
       <c r="G96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="H96" s="3">
         <v>-21000</v>
       </c>
       <c r="I96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-23000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-21000</v>
       </c>
       <c r="L96" s="3">
         <v>-21000</v>
       </c>
       <c r="M96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-13000</v>
       </c>
       <c r="O96" s="3">
         <v>-13000</v>
@@ -5830,28 +6064,31 @@
         <v>-13000</v>
       </c>
       <c r="Q96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="R96" s="3">
         <v>-14000</v>
       </c>
       <c r="S96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-14000</v>
       </c>
       <c r="U96" s="3">
         <v>-14000</v>
       </c>
       <c r="V96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-13000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E100" s="3">
         <v>22000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-95000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-62000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-239000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-162000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>927000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-125000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-234000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1027000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-74000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-87000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-88000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-53000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-138000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>90000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-79000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>92000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>88000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-15000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-66000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,322 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
         <v>44498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43952</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43770</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43679</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43588</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43497</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43406</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43315</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43224</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43133</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43042</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42951</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42860</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42769</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1782000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1898000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1836000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1878000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1717000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1818000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1764000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1757000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1540000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1630000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1594000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1615000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1192000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1177000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1115000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1175000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1128000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1145000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1078000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1103000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1018000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1685000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1604000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1661000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1517000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1609000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1564000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1574000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1373000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1456000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1409000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1435000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1070000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1048000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1003000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1074000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1021000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1036000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>979000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1007000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>919000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E10" s="3">
         <v>213000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>232000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>217000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>209000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>183000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>167000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>174000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>180000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>122000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>129000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>112000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>101000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>107000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>109000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>99000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>96000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>99000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,58 +1145,61 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7000</v>
       </c>
       <c r="H14" s="3">
         <v>7000</v>
       </c>
       <c r="I14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J14" s="3">
         <v>15000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>72000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1190,14 +1210,17 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1313,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1784000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1703000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1748000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1615000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1708000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1664000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1679000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1452000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1536000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1499000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1522000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1185000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1104000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1041000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1109000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1066000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1073000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1019000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1040000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>965000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E18" s="3">
         <v>114000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>133000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>130000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>102000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>110000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>94000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>93000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>73000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>62000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>72000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>59000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>63000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,55 +1482,56 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
       <c r="N20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>2000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
@@ -1506,87 +1540,93 @@
         <v>1000</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E21" s="3">
         <v>158000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>171000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>174000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>153000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>158000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>152000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>109000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>130000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>131000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>24000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>85000</v>
       </c>
       <c r="Q21" s="3">
         <v>85000</v>
       </c>
       <c r="R21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="S21" s="3">
         <v>78000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>76000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>84000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>71000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,200 +1637,209 @@
         <v>26000</v>
       </c>
       <c r="F22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="G22" s="3">
         <v>27000</v>
       </c>
       <c r="H22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="I22" s="3">
         <v>32000</v>
       </c>
       <c r="J22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K22" s="3">
         <v>31000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>22000</v>
       </c>
       <c r="M22" s="3">
         <v>22000</v>
       </c>
       <c r="N22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="O22" s="3">
         <v>25000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>12000</v>
       </c>
       <c r="S22" s="3">
         <v>12000</v>
       </c>
       <c r="T22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U22" s="3">
         <v>11000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>11000</v>
       </c>
       <c r="W22" s="3">
         <v>11000</v>
       </c>
       <c r="X22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E23" s="3">
         <v>88000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>108000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>105000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>78000</v>
       </c>
       <c r="H23" s="3">
         <v>78000</v>
       </c>
       <c r="I23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="J23" s="3">
         <v>70000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>69000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>70000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>64000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>62000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>49000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>52000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>43000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>17000</v>
       </c>
       <c r="M24" s="3">
         <v>17000</v>
       </c>
       <c r="N24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E26" s="3">
         <v>71000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>82000</v>
       </c>
       <c r="F26" s="3">
         <v>82000</v>
       </c>
       <c r="G26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="H26" s="3">
         <v>61000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>56000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>49000</v>
       </c>
       <c r="R26" s="3">
         <v>49000</v>
       </c>
       <c r="S26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T26" s="3">
         <v>34000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>49000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>31000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E27" s="3">
         <v>71000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>81000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>51000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>55000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>49000</v>
       </c>
       <c r="R27" s="3">
         <v>49000</v>
       </c>
       <c r="S27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T27" s="3">
         <v>34000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>36000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>49000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>31000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2093,17 +2154,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2111,11 +2172,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>17000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,55 +2332,58 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1000</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="R32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
@@ -2322,87 +2392,93 @@
         <v>-1000</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E33" s="3">
         <v>71000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>81000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>55000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>55000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>49000</v>
       </c>
       <c r="R33" s="3">
         <v>49000</v>
       </c>
       <c r="S33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T33" s="3">
         <v>51000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>36000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>49000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>31000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2545,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E35" s="3">
         <v>71000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>81000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>55000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>55000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>49000</v>
       </c>
       <c r="R35" s="3">
         <v>49000</v>
       </c>
       <c r="S35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T35" s="3">
         <v>51000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>36000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>49000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>31000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
         <v>44498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43952</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43770</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43679</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43588</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43497</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43406</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43315</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43224</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43133</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43042</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42951</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42860</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42769</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E41" s="3">
         <v>148000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>261000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>171000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>182000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>197000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>276000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>188000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>162000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>179000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>151000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>237000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>193000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>106000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>152000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>144000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>125000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>140000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>207000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>210000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,81 +2888,87 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1107000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1064000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1023000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>962000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1052000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1032000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1070000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1099000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1118000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1033000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1039000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1050000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>765000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>713000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>671000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>674000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>717000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>639000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>582000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>539000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>64000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -2880,11 +2976,11 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>78000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -2901,8 +2997,8 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2917,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>68000</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
@@ -2928,191 +3024,200 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3">
         <v>71000</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E45" s="3">
         <v>128000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>146000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>156000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>167000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>184000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>179000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>143000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>144000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>130000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>127000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>146000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>114000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>107000</v>
       </c>
       <c r="R45" s="3">
         <v>107000</v>
       </c>
       <c r="S45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="T45" s="3">
         <v>64000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>134000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>113000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>128000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>81000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1383000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1343000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1440000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1289000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1401000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1413000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1525000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1430000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1424000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1342000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1317000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1433000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>926000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>930000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>950000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>976000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>892000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>917000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>901000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E47" s="3">
         <v>48000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>47000</v>
       </c>
       <c r="F47" s="3">
         <v>47000</v>
       </c>
       <c r="G47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H47" s="3">
         <v>18000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>42000</v>
       </c>
       <c r="I47" s="3">
         <v>42000</v>
       </c>
       <c r="J47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K47" s="3">
         <v>40000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>44000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>41000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13000</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3120,8 +3225,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3138,144 +3243,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>326000</v>
+        <v>309000</v>
       </c>
       <c r="E48" s="3">
         <v>326000</v>
       </c>
       <c r="F48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="G48" s="3">
         <v>333000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>344000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>349000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>354000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>351000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>281000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>282000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>281000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>269000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>103000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>67000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>70000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>66000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>61000</v>
       </c>
       <c r="T48" s="3">
         <v>61000</v>
       </c>
       <c r="U48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="V48" s="3">
         <v>57000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>58000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>60000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4045000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4071000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4098000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3893000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3925000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3966000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4006000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3987000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2850000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2867000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2874000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2898000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2923000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1027000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1032000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1037000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1042000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1047000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1052000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1058000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1063000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3527,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E52" s="3">
         <v>88000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>91000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>99000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>147000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>117000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>132000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>113000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>106000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>85000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>89000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>81000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>32000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5746000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5916000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5905000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5812000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5723000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5875000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5947000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6016000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4711000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4700000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4627000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4607000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4563000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2202000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2060000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2061000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2073000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2101000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2019000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2050000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2042000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,416 +3796,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E57" s="3">
         <v>828000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>846000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>843000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>517000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>806000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>809000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>741000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>527000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>648000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>578000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>592000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>455000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>442000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>425000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>459000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>397000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>490000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>420000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>443000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>329000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E58" s="3">
         <v>119000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>112000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>104000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>68000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>90000</v>
       </c>
       <c r="I58" s="3">
         <v>90000</v>
       </c>
       <c r="J58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K58" s="3">
         <v>83000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>70000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>151000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>37000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>11000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>49000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>45000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>41000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>37000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>58000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>24000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>25000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E59" s="3">
         <v>448000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>425000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>451000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>690000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>537000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>474000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>628000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>531000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>479000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>419000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>381000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>418000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>229000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>188000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>191000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>257000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>203000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>156000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>180000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>345000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1352000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1395000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1383000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1398000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1275000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1433000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1373000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1452000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1128000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1191000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1148000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1010000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>897000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>682000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>662000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>695000</v>
       </c>
       <c r="S60" s="3">
         <v>695000</v>
       </c>
       <c r="T60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="U60" s="3">
         <v>730000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>634000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>647000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>623000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2370000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2433000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2461000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2390000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2447000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2446000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2657000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2801000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1851000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1872000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1887000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1902000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2065000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1026000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>959000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>971000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>983000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>994000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1006000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1014000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1022000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E62" s="3">
         <v>443000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>433000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>437000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>449000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>486000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>467000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>355000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>305000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>248000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>243000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>222000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>102000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>83000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>72000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>68000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>55000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>54000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>53000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>48000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4127000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4281000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4287000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4235000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4181000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4376000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4510000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4621000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3294000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3320000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3288000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3145000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3078000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1791000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1693000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1736000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1746000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1779000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1694000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1714000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1693000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4815,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>818000</v>
+      </c>
+      <c r="E72" s="3">
         <v>796000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>747000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>687000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>627000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>587000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>550000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>520000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>506000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>468000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>435000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>400000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>367000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>390000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>355000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>320000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>323000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>322000</v>
       </c>
       <c r="U72" s="3">
         <v>322000</v>
       </c>
       <c r="V72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="W72" s="3">
         <v>301000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>260000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1635000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1618000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1577000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1542000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1499000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1437000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1395000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1417000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1380000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1339000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1462000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1485000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>411000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>367000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>325000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>327000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>322000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>325000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>336000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>349000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5241,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
         <v>44498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43952</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43770</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43679</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43588</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43497</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43406</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43315</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43224</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43133</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43042</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42951</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42860</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42769</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E81" s="3">
         <v>71000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>81000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>55000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>55000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>49000</v>
       </c>
       <c r="R81" s="3">
         <v>49000</v>
       </c>
       <c r="S81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="T81" s="3">
         <v>51000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>36000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>49000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>31000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,49 +5417,50 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E83" s="3">
         <v>44000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>48000</v>
       </c>
       <c r="H83" s="3">
         <v>48000</v>
       </c>
       <c r="I83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>11000</v>
       </c>
       <c r="Q83" s="3">
         <v>11000</v>
@@ -5270,25 +5469,28 @@
         <v>11000</v>
       </c>
       <c r="S83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T83" s="3">
         <v>13000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5841,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E89" s="3">
         <v>134000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>92000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>189000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>231000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>104000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>367000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>69000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>116000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>178000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>88000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>84000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>80000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-35000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>88000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>62000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5941,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6152,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-252000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6028,7 +6262,7 @@
         <v>-21000</v>
       </c>
       <c r="E96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="F96" s="3">
         <v>-22000</v>
@@ -6037,28 +6271,28 @@
         <v>-22000</v>
       </c>
       <c r="H96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="I96" s="3">
         <v>-21000</v>
       </c>
       <c r="J96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-23000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-21000</v>
       </c>
       <c r="M96" s="3">
         <v>-21000</v>
       </c>
       <c r="N96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-13000</v>
       </c>
       <c r="P96" s="3">
         <v>-13000</v>
@@ -6067,28 +6301,31 @@
         <v>-13000</v>
       </c>
       <c r="R96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="S96" s="3">
         <v>-14000</v>
       </c>
       <c r="T96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-14000</v>
       </c>
       <c r="V96" s="3">
         <v>-14000</v>
       </c>
       <c r="W96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-13000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6534,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-103000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-95000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-239000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-162000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>927000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-125000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-234000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1027000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-74000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-58000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-87000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-88000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-53000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-138000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>90000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-79000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>92000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-86000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>88000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-15000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-66000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,334 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44134</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43952</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43770</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43679</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43588</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43497</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43406</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43315</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43224</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43133</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43042</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42951</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42860</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42769</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1782000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1898000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1836000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1878000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1717000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1818000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1764000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1757000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1540000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1630000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1594000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1615000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1192000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1177000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1115000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1175000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1128000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1145000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1078000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1103000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1018000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1770000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1585000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1685000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1604000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1661000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1517000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1609000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1564000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1574000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1373000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1456000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1409000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1435000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1070000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1048000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1003000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1074000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1021000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1036000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>979000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1007000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>919000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E10" s="3">
         <v>197000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>213000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>232000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>217000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>209000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>183000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>167000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>174000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>185000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>180000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>122000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>129000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>112000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>101000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>107000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>109000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>99000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>96000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>99000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,61 +1164,64 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7000</v>
       </c>
       <c r="I14" s="3">
         <v>7000</v>
       </c>
       <c r="J14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>72000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1213,14 +1232,17 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1697000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1784000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1703000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1748000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1615000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1708000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1664000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1679000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1452000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1536000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1499000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1522000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1185000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1104000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1041000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1109000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1066000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1073000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1019000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1040000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>965000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E18" s="3">
         <v>85000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>133000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>130000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>102000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>110000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>94000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>93000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>62000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>72000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>59000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>63000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>53000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1483,58 +1515,59 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
       </c>
       <c r="O20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>2000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="S20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
@@ -1543,95 +1576,101 @@
         <v>1000</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E21" s="3">
         <v>125000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>158000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>174000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>153000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>158000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>152000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>109000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>125000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>130000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>131000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>24000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>85000</v>
       </c>
       <c r="R21" s="3">
         <v>85000</v>
       </c>
       <c r="S21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="T21" s="3">
         <v>78000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>76000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>84000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>71000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>73000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="E22" s="3">
         <v>26000</v>
@@ -1640,206 +1679,215 @@
         <v>26000</v>
       </c>
       <c r="G22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="H22" s="3">
         <v>27000</v>
       </c>
       <c r="I22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="J22" s="3">
         <v>32000</v>
       </c>
       <c r="K22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="L22" s="3">
         <v>31000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>22000</v>
       </c>
       <c r="N22" s="3">
         <v>22000</v>
       </c>
       <c r="O22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="P22" s="3">
         <v>25000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>12000</v>
       </c>
       <c r="T22" s="3">
         <v>12000</v>
       </c>
       <c r="U22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V22" s="3">
         <v>11000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>11000</v>
       </c>
       <c r="X22" s="3">
         <v>11000</v>
       </c>
       <c r="Y22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E23" s="3">
         <v>57000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>88000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>108000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>105000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>78000</v>
       </c>
       <c r="I23" s="3">
         <v>78000</v>
       </c>
       <c r="J23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K23" s="3">
         <v>70000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>69000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>70000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>64000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>62000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>49000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>52000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>43000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>13000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>17000</v>
       </c>
       <c r="N24" s="3">
         <v>17000</v>
       </c>
       <c r="O24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>17000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E26" s="3">
         <v>44000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>71000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>82000</v>
       </c>
       <c r="G26" s="3">
         <v>82000</v>
       </c>
       <c r="H26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="I26" s="3">
         <v>61000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>56000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>49000</v>
       </c>
       <c r="S26" s="3">
         <v>49000</v>
       </c>
       <c r="T26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="U26" s="3">
         <v>34000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>36000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>49000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>31000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E27" s="3">
         <v>43000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>71000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>81000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>55000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>55000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>49000</v>
       </c>
       <c r="S27" s="3">
         <v>49000</v>
       </c>
       <c r="T27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="U27" s="3">
         <v>34000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>36000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>31000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2157,17 +2217,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2175,11 +2235,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>17000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2193,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,58 +2401,61 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>-1000</v>
       </c>
       <c r="O32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="S32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
@@ -2395,90 +2464,96 @@
         <v>-1000</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E33" s="3">
         <v>43000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>71000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>81000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>55000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>55000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>49000</v>
       </c>
       <c r="S33" s="3">
         <v>49000</v>
       </c>
       <c r="T33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="U33" s="3">
         <v>51000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>36000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>49000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>31000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E35" s="3">
         <v>43000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>71000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>81000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>55000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>55000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>49000</v>
       </c>
       <c r="S35" s="3">
         <v>49000</v>
       </c>
       <c r="T35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="U35" s="3">
         <v>51000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>36000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>49000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>31000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44134</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43952</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43770</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43679</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43588</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43497</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43406</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43315</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43224</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43133</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43042</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42951</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42860</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42769</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E41" s="3">
         <v>106000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>148000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>261000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>171000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>182000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>197000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>276000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>188000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>162000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>179000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>151000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>237000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>193000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>106000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>152000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>144000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>125000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>140000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>207000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>210000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,87 +2980,93 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1015000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1107000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1064000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1023000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>962000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1052000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1032000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1070000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1099000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1118000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1033000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1039000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1050000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>765000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>713000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>671000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>674000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>717000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>639000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>582000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>539000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>64000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -2979,11 +3074,11 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>78000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3000,8 +3095,8 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3016,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>68000</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
@@ -3027,200 +3122,209 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y44" s="3">
         <v>71000</v>
       </c>
-      <c r="Y44" s="3" t="s">
+      <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E45" s="3">
         <v>78000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>128000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>146000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>156000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>78000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>167000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>184000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>179000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>143000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>144000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>130000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>146000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>114000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>107000</v>
       </c>
       <c r="S45" s="3">
         <v>107000</v>
       </c>
       <c r="T45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="U45" s="3">
         <v>64000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>134000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>113000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>128000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>81000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1263000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1383000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1343000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1440000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1289000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1401000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1413000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1525000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1430000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1424000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1342000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1317000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1433000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1072000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>926000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>930000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>950000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>976000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>892000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>917000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>901000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E47" s="3">
         <v>45000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>47000</v>
       </c>
       <c r="G47" s="3">
         <v>47000</v>
       </c>
       <c r="H47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I47" s="3">
         <v>18000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>42000</v>
       </c>
       <c r="J47" s="3">
         <v>42000</v>
       </c>
       <c r="K47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="L47" s="3">
         <v>40000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>44000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3228,8 +3332,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3246,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E48" s="3">
         <v>309000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>326000</v>
       </c>
       <c r="F48" s="3">
         <v>326000</v>
       </c>
       <c r="G48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="H48" s="3">
         <v>333000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>344000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>349000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>354000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>351000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>281000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>282000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>281000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>269000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>103000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>67000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>70000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>66000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>61000</v>
       </c>
       <c r="U48" s="3">
         <v>61000</v>
       </c>
       <c r="V48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="W48" s="3">
         <v>57000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>58000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>60000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4012000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4045000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4071000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4098000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3893000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3925000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3966000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4006000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3987000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2850000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2867000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2874000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2898000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2923000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1027000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1032000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1037000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1042000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1047000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1052000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1058000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1063000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E52" s="3">
         <v>84000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>91000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>99000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>147000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>117000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>132000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>113000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>106000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>85000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>89000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>81000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>32000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5716000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5746000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5916000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5905000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5812000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5723000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5875000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5947000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6016000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4711000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4700000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4627000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4607000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4563000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2202000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2060000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2061000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2073000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2101000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2019000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2050000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2042000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E57" s="3">
         <v>612000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>828000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>846000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>843000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>517000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>806000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>809000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>741000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>527000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>648000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>578000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>592000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>455000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>442000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>425000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>459000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>397000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>490000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>420000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>443000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>329000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E58" s="3">
         <v>148000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>119000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>112000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>104000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>68000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>90000</v>
       </c>
       <c r="J58" s="3">
         <v>90000</v>
       </c>
       <c r="K58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="L58" s="3">
         <v>83000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>70000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>151000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>37000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>11000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>49000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>45000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>41000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>37000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>58000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>24000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>25000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E59" s="3">
         <v>592000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>448000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>425000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>451000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>690000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>537000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>474000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>628000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>531000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>479000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>419000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>381000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>418000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>229000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>188000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>191000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>257000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>203000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>156000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>180000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>345000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1352000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1395000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1383000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1398000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1275000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1433000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1373000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1452000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1128000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1191000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1148000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1010000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>897000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>682000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>662000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>695000</v>
       </c>
       <c r="T60" s="3">
         <v>695000</v>
       </c>
       <c r="U60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="V60" s="3">
         <v>730000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>634000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>647000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>623000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2342000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2370000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2433000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2461000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2390000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2447000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2446000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2657000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2801000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1851000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1872000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1887000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1902000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2065000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1026000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>959000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>971000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>983000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>994000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1006000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1014000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1022000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E62" s="3">
         <v>395000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>443000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>433000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>437000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>449000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>486000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>467000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>355000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>305000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>248000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>243000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>222000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>102000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>83000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>72000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>68000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>55000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>54000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>53000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>48000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4365,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4076000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4127000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4281000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4287000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4235000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4181000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4376000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4510000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4621000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3294000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3320000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3288000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3145000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3078000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1791000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1693000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1736000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1746000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1779000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1694000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1714000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1693000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E72" s="3">
         <v>818000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>796000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>747000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>687000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>627000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>587000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>550000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>520000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>506000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>468000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>435000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>400000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>367000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>390000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>355000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>320000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>323000</v>
-      </c>
-      <c r="U72" s="3">
-        <v>322000</v>
       </c>
       <c r="V72" s="3">
         <v>322000</v>
       </c>
       <c r="W72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="X72" s="3">
         <v>301000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>260000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1619000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1635000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1618000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1577000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1542000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1499000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1437000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1395000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1417000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1380000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1339000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1462000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1485000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>411000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>367000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>325000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>327000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>322000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>325000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>336000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>349000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44134</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43952</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43770</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43679</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43588</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43497</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43406</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43315</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43224</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43133</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43042</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42951</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42860</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42769</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E81" s="3">
         <v>43000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>71000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>81000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>55000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>55000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>49000</v>
       </c>
       <c r="S81" s="3">
         <v>49000</v>
       </c>
       <c r="T81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="U81" s="3">
         <v>51000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>36000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>49000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>31000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,52 +5615,53 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E83" s="3">
         <v>42000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>48000</v>
       </c>
       <c r="I83" s="3">
         <v>48000</v>
       </c>
       <c r="J83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>11000</v>
       </c>
       <c r="R83" s="3">
         <v>11000</v>
@@ -5472,25 +5670,28 @@
         <v>11000</v>
       </c>
       <c r="T83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U83" s="3">
         <v>13000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>12000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>10000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E89" s="3">
         <v>103000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>134000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>92000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>189000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>53000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>231000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>367000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>116000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>178000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>88000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>84000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>80000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-35000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>88000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>62000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-252000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,19 +6485,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="E96" s="3">
         <v>-21000</v>
       </c>
       <c r="F96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="G96" s="3">
         <v>-22000</v>
@@ -6274,28 +6507,28 @@
         <v>-22000</v>
       </c>
       <c r="I96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="J96" s="3">
         <v>-21000</v>
       </c>
       <c r="K96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-23000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-21000</v>
       </c>
       <c r="N96" s="3">
         <v>-21000</v>
       </c>
       <c r="O96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-13000</v>
       </c>
       <c r="Q96" s="3">
         <v>-13000</v>
@@ -6304,28 +6537,31 @@
         <v>-13000</v>
       </c>
       <c r="S96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="T96" s="3">
         <v>-14000</v>
       </c>
       <c r="U96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-14000</v>
       </c>
       <c r="W96" s="3">
         <v>-14000</v>
       </c>
       <c r="X96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-125000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-103000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-95000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-239000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-162000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>927000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-125000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-234000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1027000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-74000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-58000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-87000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-88000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-53000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-138000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>90000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-79000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>92000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-86000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>88000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-15000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-66000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
         <v>44680</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44134</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43952</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43770</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43679</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43588</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43497</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43406</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43315</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43224</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43133</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43042</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42951</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42860</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42769</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1996000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1782000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1898000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1836000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1878000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1717000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1818000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1764000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1757000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1540000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1630000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1594000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1192000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1177000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1115000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1175000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1128000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1145000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1078000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1103000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1018000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1770000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1585000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1685000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1604000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1661000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1517000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1609000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1564000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1574000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1373000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1456000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1409000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1435000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1070000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1048000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1003000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1074000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1021000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1036000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>979000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1007000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>919000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E10" s="3">
         <v>226000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>197000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>213000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>232000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>217000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>209000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>183000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>167000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>174000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>185000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>180000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>122000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>129000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>112000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>101000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>107000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>109000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>99000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>96000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>99000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,64 +1184,67 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7000</v>
       </c>
       <c r="J14" s="3">
         <v>7000</v>
       </c>
       <c r="K14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>72000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1235,14 +1255,17 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,82 +1366,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1706000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1871000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1697000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1784000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1703000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1748000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1615000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1708000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1664000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1679000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1452000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1536000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1499000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1522000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1185000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1104000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1041000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1109000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1066000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1073000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1019000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1040000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>965000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,73 +1453,76 @@
         <v>125000</v>
       </c>
       <c r="E18" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F18" s="3">
         <v>85000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>114000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>133000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>130000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>102000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>110000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>94000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>62000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>72000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>59000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>63000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>53000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,61 +1549,62 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
       </c>
       <c r="P20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
@@ -1579,101 +1613,107 @@
         <v>1000</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E21" s="3">
         <v>163000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>158000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>174000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>153000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>158000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>152000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>109000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>125000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>130000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>131000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>85000</v>
       </c>
       <c r="S21" s="3">
         <v>85000</v>
       </c>
       <c r="T21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="U21" s="3">
         <v>78000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>76000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>84000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>71000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>73000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E22" s="3">
         <v>27000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>26000</v>
       </c>
       <c r="F22" s="3">
         <v>26000</v>
@@ -1682,64 +1722,67 @@
         <v>26000</v>
       </c>
       <c r="H22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="I22" s="3">
         <v>27000</v>
       </c>
       <c r="J22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="K22" s="3">
         <v>32000</v>
       </c>
       <c r="L22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="M22" s="3">
         <v>31000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>22000</v>
       </c>
       <c r="O22" s="3">
         <v>22000</v>
       </c>
       <c r="P22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>25000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>12000</v>
       </c>
       <c r="U22" s="3">
         <v>12000</v>
       </c>
       <c r="V22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W22" s="3">
         <v>11000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>11000</v>
       </c>
       <c r="Y22" s="3">
         <v>11000</v>
       </c>
       <c r="Z22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1747,73 +1790,76 @@
         <v>95000</v>
       </c>
       <c r="E23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F23" s="3">
         <v>57000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>88000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>108000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>105000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>78000</v>
       </c>
       <c r="J23" s="3">
         <v>78000</v>
       </c>
       <c r="K23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="L23" s="3">
         <v>70000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>69000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>70000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>62000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>49000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>52000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>43000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1821,73 +1867,76 @@
         <v>21000</v>
       </c>
       <c r="E24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F24" s="3">
         <v>13000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>17000</v>
       </c>
       <c r="O24" s="3">
         <v>17000</v>
       </c>
       <c r="P24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>17000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2009,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1969,73 +2021,76 @@
         <v>74000</v>
       </c>
       <c r="E26" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F26" s="3">
         <v>44000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>82000</v>
       </c>
       <c r="H26" s="3">
         <v>82000</v>
       </c>
       <c r="I26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="J26" s="3">
         <v>61000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>57000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>49000</v>
       </c>
       <c r="T26" s="3">
         <v>49000</v>
       </c>
       <c r="U26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V26" s="3">
         <v>34000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>43000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>36000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>49000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>31000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2043,73 +2098,76 @@
         <v>73000</v>
       </c>
       <c r="E27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F27" s="3">
         <v>43000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>82000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>81000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>55000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>55000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>49000</v>
       </c>
       <c r="T27" s="3">
         <v>49000</v>
       </c>
       <c r="U27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V27" s="3">
         <v>34000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>43000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>49000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>31000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2220,17 +2281,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2238,11 +2299,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>17000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,61 +2471,64 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
       </c>
       <c r="P32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
@@ -2467,19 +2537,22 @@
         <v>-1000</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2487,73 +2560,76 @@
         <v>73000</v>
       </c>
       <c r="E33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F33" s="3">
         <v>43000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>82000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>81000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>62000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>60000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>55000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>55000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>49000</v>
       </c>
       <c r="T33" s="3">
         <v>49000</v>
       </c>
       <c r="U33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V33" s="3">
         <v>51000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>49000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>31000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2702,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2635,152 +2714,158 @@
         <v>73000</v>
       </c>
       <c r="E35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F35" s="3">
         <v>43000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>82000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>81000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>62000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>60000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>55000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>55000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>49000</v>
       </c>
       <c r="T35" s="3">
         <v>49000</v>
       </c>
       <c r="U35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V35" s="3">
         <v>51000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>49000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>31000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
         <v>44680</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44134</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43952</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43770</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43679</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43588</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43497</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43406</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43315</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43224</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43133</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43042</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42951</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42860</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42769</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E41" s="3">
         <v>56000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>148000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>261000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>171000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>182000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>276000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>188000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>162000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>179000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>151000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>237000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>193000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>106000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>152000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>144000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>125000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>140000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>207000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>210000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,93 +3073,99 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1104000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1015000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1107000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1064000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1023000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>962000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1052000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1032000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1070000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1099000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1118000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1033000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1050000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>765000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>713000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>671000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>674000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>717000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>639000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>582000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>539000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>64000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -3077,11 +3173,11 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>78000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -3098,8 +3194,8 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3114,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>68000</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
@@ -3125,162 +3221,171 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="3">
         <v>71000</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E45" s="3">
         <v>131000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>78000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>128000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>146000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>156000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>78000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>167000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>184000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>179000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>143000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>144000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>130000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>127000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>146000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>114000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>107000</v>
       </c>
       <c r="T45" s="3">
         <v>107000</v>
       </c>
       <c r="U45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="V45" s="3">
         <v>64000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>134000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>113000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>128000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>81000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1291000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1263000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1383000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1343000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1440000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1289000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1401000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1413000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1525000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1430000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1424000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1342000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1317000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1433000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1072000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>926000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>930000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>950000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>976000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>892000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>917000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>901000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3288,46 +3393,46 @@
         <v>44000</v>
       </c>
       <c r="E47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F47" s="3">
         <v>45000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>47000</v>
       </c>
       <c r="H47" s="3">
         <v>47000</v>
       </c>
       <c r="I47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="J47" s="3">
         <v>18000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>42000</v>
       </c>
       <c r="K47" s="3">
         <v>42000</v>
       </c>
       <c r="L47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="M47" s="3">
         <v>40000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>44000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>42000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13000</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3335,8 +3440,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3353,156 +3458,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E48" s="3">
         <v>284000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>309000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>326000</v>
       </c>
       <c r="G48" s="3">
         <v>326000</v>
       </c>
       <c r="H48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="I48" s="3">
         <v>333000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>344000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>349000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>354000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>351000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>281000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>282000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>281000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>269000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>103000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>67000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>70000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>66000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>61000</v>
       </c>
       <c r="V48" s="3">
         <v>61000</v>
       </c>
       <c r="W48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="X48" s="3">
         <v>57000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>58000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>60000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3980000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4012000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4045000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4071000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4098000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3893000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3925000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3966000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4006000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3987000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2850000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2867000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2874000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2898000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2923000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1027000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1032000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1037000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1042000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1047000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1052000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1058000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1063000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E52" s="3">
         <v>85000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>84000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>91000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>99000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>147000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>117000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>132000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>113000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>106000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>85000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>81000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>32000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5654000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5716000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5746000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5916000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5905000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5812000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5723000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5875000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5947000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6016000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4711000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4700000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4627000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4607000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4563000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2202000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2060000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2061000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2073000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2101000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2019000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2050000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2042000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4057,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>813000</v>
+      </c>
+      <c r="E57" s="3">
         <v>776000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>612000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>828000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>846000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>843000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>517000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>806000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>809000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>741000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>527000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>648000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>578000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>592000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>455000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>442000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>425000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>459000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>397000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>490000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>420000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>443000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>329000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>119000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>148000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>119000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>112000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>104000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>68000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>90000</v>
       </c>
       <c r="K58" s="3">
         <v>90000</v>
       </c>
       <c r="L58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="M58" s="3">
         <v>83000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>70000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>64000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>151000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>37000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>49000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>45000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>41000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>37000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>58000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>24000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>25000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E59" s="3">
         <v>439000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>592000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>448000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>425000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>451000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>690000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>537000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>474000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>628000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>531000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>479000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>419000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>381000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>418000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>229000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>188000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>191000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>257000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>203000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>156000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>180000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>345000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1334000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1352000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1395000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1383000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1398000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1275000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1433000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1373000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1452000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1128000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1191000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1148000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1010000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>897000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>682000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>662000</v>
-      </c>
-      <c r="T60" s="3">
-        <v>695000</v>
       </c>
       <c r="U60" s="3">
         <v>695000</v>
       </c>
       <c r="V60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="W60" s="3">
         <v>730000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>634000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>647000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>623000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2462000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2342000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2370000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2433000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2461000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2390000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2447000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2446000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2657000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2801000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1851000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1872000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1887000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1902000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2065000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1026000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>959000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>971000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>983000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>994000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1006000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1014000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1022000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>349000</v>
+      </c>
+      <c r="E62" s="3">
         <v>390000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>395000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>443000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>433000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>437000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>449000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>486000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>467000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>355000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>305000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>248000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>243000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>222000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>102000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>83000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>72000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>70000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>68000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>55000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>53000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>48000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4011000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4076000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4127000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4281000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4287000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4235000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4181000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4376000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4510000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4621000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3294000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3320000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3288000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3145000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3078000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1791000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1693000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1736000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1746000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1779000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1694000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1714000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1693000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>923000</v>
+      </c>
+      <c r="E72" s="3">
         <v>870000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>818000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>796000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>747000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>687000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>627000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>587000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>550000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>520000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>506000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>468000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>435000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>400000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>367000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>390000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>355000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>320000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>323000</v>
-      </c>
-      <c r="V72" s="3">
-        <v>322000</v>
       </c>
       <c r="W72" s="3">
         <v>322000</v>
       </c>
       <c r="X72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="Y72" s="3">
         <v>301000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>260000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1640000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1619000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1635000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1618000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1577000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1542000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1499000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1437000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1395000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1417000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1380000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1339000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1462000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1485000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>411000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>367000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>325000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>327000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>322000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>325000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>336000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>349000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5624,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
         <v>44680</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44134</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43952</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43770</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43679</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43588</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43497</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43406</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43315</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43224</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43133</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43042</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42951</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42860</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42769</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5523,73 +5718,76 @@
         <v>73000</v>
       </c>
       <c r="E81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F81" s="3">
         <v>43000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>82000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>81000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>62000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>60000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>55000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>55000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>49000</v>
       </c>
       <c r="T81" s="3">
         <v>49000</v>
       </c>
       <c r="U81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="V81" s="3">
         <v>51000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>49000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>31000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,55 +5814,56 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E83" s="3">
         <v>41000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>37000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>48000</v>
       </c>
       <c r="J83" s="3">
         <v>48000</v>
       </c>
       <c r="K83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>11000</v>
       </c>
       <c r="S83" s="3">
         <v>11000</v>
@@ -5673,25 +5872,28 @@
         <v>11000</v>
       </c>
       <c r="U83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="V83" s="3">
         <v>13000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>12000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>10000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E89" s="3">
         <v>118000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>103000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>134000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>92000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>189000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>53000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>231000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>367000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>69000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>116000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>178000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>86000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>88000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>84000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>80000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-35000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>88000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>62000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-252000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,22 +6719,23 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-21000</v>
       </c>
       <c r="F96" s="3">
         <v>-21000</v>
       </c>
       <c r="G96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="H96" s="3">
         <v>-22000</v>
@@ -6510,28 +6744,28 @@
         <v>-22000</v>
       </c>
       <c r="J96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="K96" s="3">
         <v>-21000</v>
       </c>
       <c r="L96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-23000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-21000</v>
       </c>
       <c r="O96" s="3">
         <v>-21000</v>
       </c>
       <c r="P96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-13000</v>
       </c>
       <c r="R96" s="3">
         <v>-13000</v>
@@ -6540,28 +6774,31 @@
         <v>-13000</v>
       </c>
       <c r="T96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="U96" s="3">
         <v>-14000</v>
       </c>
       <c r="V96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-14000</v>
       </c>
       <c r="X96" s="3">
         <v>-14000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-162000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-125000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-103000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-95000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-239000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-162000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>927000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-125000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1027000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-23000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-74000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-58000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-87000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-28000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-53000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-42000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-138000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>90000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-79000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>92000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>88000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-46000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-15000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-66000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43679</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43588</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43497</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43406</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43315</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43224</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43133</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43042</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42951</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42860</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42769</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1909000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1831000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1996000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1782000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1898000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1836000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1878000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1717000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1818000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1764000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1757000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1540000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1630000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1594000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1615000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1192000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1177000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1115000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1175000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1128000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1145000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1078000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1103000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1018000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1688000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1612000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1770000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1585000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1685000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1604000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1661000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1517000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1609000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1564000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1574000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1373000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1456000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1409000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1435000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1070000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1048000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1003000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1074000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1021000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1036000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>979000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1007000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>919000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E10" s="3">
         <v>219000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>226000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>197000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>213000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>232000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>217000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>183000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>167000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>174000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>185000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>180000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>122000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>129000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>112000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>101000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>107000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>109000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>99000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>96000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>99000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,67 +1204,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7000</v>
       </c>
       <c r="K14" s="3">
         <v>7000</v>
       </c>
       <c r="L14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>72000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14000</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1258,14 +1278,17 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1706000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1871000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1697000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1784000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1703000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1748000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1615000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1708000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1664000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1679000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1452000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1536000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1499000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1522000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1185000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1104000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1041000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1109000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1066000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1073000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1019000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1040000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>965000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>125000</v>
+        <v>133000</v>
       </c>
       <c r="E18" s="3">
         <v>125000</v>
       </c>
       <c r="F18" s="3">
+        <v>125000</v>
+      </c>
+      <c r="G18" s="3">
         <v>85000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>114000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>133000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>130000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>102000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>110000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>94000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>73000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>62000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>72000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>59000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>63000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>53000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,64 +1583,65 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
       </c>
       <c r="Q20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>2000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>1000</v>
@@ -1616,96 +1650,102 @@
         <v>1000</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E21" s="3">
         <v>165000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>163000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>125000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>158000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>171000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>174000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>153000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>158000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>152000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>109000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>128000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>130000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>131000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>85000</v>
       </c>
       <c r="T21" s="3">
         <v>85000</v>
       </c>
       <c r="U21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="V21" s="3">
         <v>78000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>76000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>84000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>71000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>73000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>66000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1713,10 +1753,10 @@
         <v>30000</v>
       </c>
       <c r="E22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F22" s="3">
         <v>27000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>26000</v>
       </c>
       <c r="G22" s="3">
         <v>26000</v>
@@ -1725,218 +1765,227 @@
         <v>26000</v>
       </c>
       <c r="I22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="J22" s="3">
         <v>27000</v>
       </c>
       <c r="K22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L22" s="3">
         <v>32000</v>
       </c>
       <c r="M22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="N22" s="3">
         <v>31000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>22000</v>
       </c>
       <c r="P22" s="3">
         <v>22000</v>
       </c>
       <c r="Q22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="R22" s="3">
         <v>25000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>12000</v>
       </c>
       <c r="V22" s="3">
         <v>12000</v>
       </c>
       <c r="W22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="X22" s="3">
         <v>11000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>11000</v>
       </c>
       <c r="Z22" s="3">
         <v>11000</v>
       </c>
       <c r="AA22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="3">
         <v>95000</v>
       </c>
       <c r="F23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="G23" s="3">
         <v>57000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>88000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>105000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>78000</v>
       </c>
       <c r="K23" s="3">
         <v>78000</v>
       </c>
       <c r="L23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="M23" s="3">
         <v>70000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>69000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>70000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>58000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>64000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>55000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>51000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>62000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>49000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>52000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>43000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="3">
         <v>21000</v>
       </c>
       <c r="F24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G24" s="3">
         <v>13000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>17000</v>
       </c>
       <c r="P24" s="3">
         <v>17000</v>
       </c>
       <c r="Q24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74000</v>
+        <v>80000</v>
       </c>
       <c r="E26" s="3">
         <v>74000</v>
       </c>
       <c r="F26" s="3">
+        <v>74000</v>
+      </c>
+      <c r="G26" s="3">
         <v>44000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>71000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>82000</v>
       </c>
       <c r="I26" s="3">
         <v>82000</v>
       </c>
       <c r="J26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K26" s="3">
         <v>61000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>56000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>57000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>49000</v>
       </c>
       <c r="U26" s="3">
         <v>49000</v>
       </c>
       <c r="V26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="W26" s="3">
         <v>34000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>43000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>36000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>49000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>31000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73000</v>
+        <v>80000</v>
       </c>
       <c r="E27" s="3">
         <v>73000</v>
       </c>
       <c r="F27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="G27" s="3">
         <v>43000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>71000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>82000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>81000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>59000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>55000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>55000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>49000</v>
       </c>
       <c r="U27" s="3">
         <v>49000</v>
       </c>
       <c r="V27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="W27" s="3">
         <v>34000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>43000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>36000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>49000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>31000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2284,17 +2345,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2302,11 +2363,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>17000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,64 +2541,67 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="U32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-1000</v>
@@ -2540,96 +2610,102 @@
         <v>-1000</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73000</v>
+        <v>80000</v>
       </c>
       <c r="E33" s="3">
         <v>73000</v>
       </c>
       <c r="F33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="G33" s="3">
         <v>43000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>82000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>81000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>62000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>59000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>55000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>55000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>49000</v>
       </c>
       <c r="U33" s="3">
         <v>49000</v>
       </c>
       <c r="V33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="W33" s="3">
         <v>51000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>43000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>36000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>49000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>31000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73000</v>
+        <v>80000</v>
       </c>
       <c r="E35" s="3">
         <v>73000</v>
       </c>
       <c r="F35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="G35" s="3">
         <v>43000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>82000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>81000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>62000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>59000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>55000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>55000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>49000</v>
       </c>
       <c r="U35" s="3">
         <v>49000</v>
       </c>
       <c r="V35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="W35" s="3">
         <v>51000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>43000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>36000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>49000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>31000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43770</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43679</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43588</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43497</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43406</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43315</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43224</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43133</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43042</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42951</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42860</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42769</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E41" s="3">
         <v>99000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>148000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>133000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>261000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>171000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>182000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>276000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>188000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>162000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>179000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>151000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>237000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>193000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>106000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>152000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>144000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>125000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>140000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>207000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>210000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,85 +3166,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1036000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1104000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1015000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1107000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1064000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1023000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>962000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1052000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1032000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1070000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1099000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1118000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1039000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1050000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>765000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>713000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>671000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>674000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>717000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>639000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>582000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>539000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3164,11 +3260,11 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3">
         <v>64000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -3176,11 +3272,11 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>78000</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -3197,8 +3293,8 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3213,10 +3309,10 @@
         <v>0</v>
       </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>68000</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
@@ -3224,14 +3320,17 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3">
         <v>71000</v>
       </c>
-      <c r="AA44" s="3" t="s">
+      <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3239,203 +3338,209 @@
         <v>135000</v>
       </c>
       <c r="E45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="F45" s="3">
         <v>131000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>78000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>128000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>146000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>156000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>78000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>184000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>179000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>144000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>130000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>127000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>146000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>114000</v>
-      </c>
-      <c r="T45" s="3">
-        <v>107000</v>
       </c>
       <c r="U45" s="3">
         <v>107000</v>
       </c>
       <c r="V45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="W45" s="3">
         <v>64000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>134000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>113000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>128000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>81000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1270000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1291000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1263000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1383000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1343000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1440000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1289000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1401000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1413000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1525000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1430000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1424000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1342000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1317000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1433000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1072000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>926000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>930000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>950000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>976000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>892000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>917000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>901000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44000</v>
+        <v>42000</v>
       </c>
       <c r="E47" s="3">
         <v>44000</v>
       </c>
       <c r="F47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="G47" s="3">
         <v>45000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>48000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>47000</v>
       </c>
       <c r="I47" s="3">
         <v>47000</v>
       </c>
       <c r="J47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K47" s="3">
         <v>18000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>42000</v>
       </c>
       <c r="L47" s="3">
         <v>42000</v>
       </c>
       <c r="M47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="N47" s="3">
         <v>40000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13000</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3443,8 +3548,8 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3461,162 +3566,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E48" s="3">
         <v>268000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>284000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>309000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>326000</v>
       </c>
       <c r="H48" s="3">
         <v>326000</v>
       </c>
       <c r="I48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="J48" s="3">
         <v>333000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>344000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>349000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>354000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>351000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>281000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>282000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>281000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>269000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>103000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>67000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>70000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>66000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>61000</v>
       </c>
       <c r="W48" s="3">
         <v>61000</v>
       </c>
       <c r="X48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>57000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>58000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>60000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3951000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3980000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4012000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4045000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4071000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4098000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3893000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3925000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3966000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4006000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3987000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2850000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2867000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2874000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2898000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2923000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1027000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1032000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1037000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1042000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1047000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1052000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1058000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1063000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E52" s="3">
         <v>92000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>84000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>91000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>99000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>147000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>132000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>113000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>106000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>85000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>81000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>36000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>32000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>20000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5628000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5654000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5716000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5746000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5916000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5905000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5812000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5723000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5875000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5947000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6016000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4711000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4627000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4607000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4563000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2202000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2060000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2061000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2073000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2101000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2019000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2050000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2042000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4188,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>784000</v>
+      </c>
+      <c r="E57" s="3">
         <v>813000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>776000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>612000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>828000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>846000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>843000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>517000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>806000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>809000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>741000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>527000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>648000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>578000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>592000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>455000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>442000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>425000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>459000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>397000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>490000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>420000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>443000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>329000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>119000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>148000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>119000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>112000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>104000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>68000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>90000</v>
       </c>
       <c r="L58" s="3">
         <v>90000</v>
       </c>
       <c r="M58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="N58" s="3">
         <v>83000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>70000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>64000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>151000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>37000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>49000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>45000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>41000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>37000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>58000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>24000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>25000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E59" s="3">
         <v>377000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>439000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>592000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>448000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>425000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>451000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>690000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>537000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>474000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>628000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>531000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>479000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>419000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>381000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>418000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>229000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>188000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>191000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>257000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>203000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>156000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>180000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>345000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1190000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1334000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1352000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1395000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1383000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1398000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1275000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1433000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1373000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1452000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1128000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1191000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1148000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1010000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>897000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>682000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>662000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>695000</v>
       </c>
       <c r="V60" s="3">
         <v>695000</v>
       </c>
       <c r="W60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="X60" s="3">
         <v>730000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>634000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>647000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>623000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2462000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2342000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2370000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2433000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2461000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2390000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2447000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2446000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2657000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2801000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1851000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1872000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1887000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1902000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2065000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1026000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>959000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>971000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>983000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>994000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1014000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1022000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E62" s="3">
         <v>349000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>390000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>395000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>443000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>433000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>437000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>449000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>486000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>467000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>355000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>305000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>248000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>243000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>222000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>102000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>83000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>72000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>70000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>68000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>55000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>54000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>53000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>48000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3942000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4011000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4076000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4127000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4281000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4287000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4235000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4181000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4376000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4510000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4621000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3294000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3320000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3288000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3145000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3078000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1791000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1693000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1736000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1746000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1779000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1694000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1714000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1693000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E72" s="3">
         <v>923000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>870000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>818000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>796000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>747000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>687000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>627000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>587000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>550000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>520000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>506000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>468000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>435000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>400000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>367000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>390000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>355000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>320000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>323000</v>
-      </c>
-      <c r="W72" s="3">
-        <v>322000</v>
       </c>
       <c r="X72" s="3">
         <v>322000</v>
       </c>
       <c r="Y72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="Z72" s="3">
         <v>301000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>260000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1686000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1643000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1640000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1619000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1635000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1618000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1577000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1542000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1499000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1437000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1395000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1417000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1380000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1339000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1462000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1485000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>411000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>367000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>325000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>327000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>322000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>325000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>336000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>349000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44862</v>
+      </c>
+      <c r="E80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43770</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43679</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43588</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43497</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43406</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43315</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43224</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43133</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43042</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42951</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42860</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42769</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73000</v>
+        <v>80000</v>
       </c>
       <c r="E81" s="3">
         <v>73000</v>
       </c>
       <c r="F81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="G81" s="3">
         <v>43000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>82000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>81000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>62000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>59000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>55000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>55000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>49000</v>
       </c>
       <c r="U81" s="3">
         <v>49000</v>
       </c>
       <c r="V81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="W81" s="3">
         <v>51000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>43000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>36000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>49000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>31000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,58 +6013,59 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E83" s="3">
         <v>40000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>42000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>48000</v>
       </c>
       <c r="K83" s="3">
         <v>48000</v>
       </c>
       <c r="L83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16000</v>
-      </c>
-      <c r="S83" s="3">
-        <v>11000</v>
       </c>
       <c r="T83" s="3">
         <v>11000</v>
@@ -5875,25 +6074,28 @@
         <v>11000</v>
       </c>
       <c r="V83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="W83" s="3">
         <v>13000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>12000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>10000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E89" s="3">
         <v>141000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>118000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>103000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>134000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>189000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>53000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>231000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>104000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>367000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>69000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>116000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>178000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>86000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>88000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>84000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>80000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>88000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>62000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-252000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-30000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,25 +6953,26 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-21000</v>
       </c>
       <c r="G96" s="3">
         <v>-21000</v>
       </c>
       <c r="H96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="I96" s="3">
         <v>-22000</v>
@@ -6747,28 +6981,28 @@
         <v>-22000</v>
       </c>
       <c r="K96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="L96" s="3">
         <v>-21000</v>
       </c>
       <c r="M96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-23000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-21000</v>
       </c>
       <c r="P96" s="3">
         <v>-21000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-13000</v>
       </c>
       <c r="S96" s="3">
         <v>-13000</v>
@@ -6777,28 +7011,31 @@
         <v>-13000</v>
       </c>
       <c r="U96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="V96" s="3">
         <v>-14000</v>
       </c>
       <c r="W96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-14000</v>
       </c>
       <c r="Y96" s="3">
         <v>-14000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-87000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-162000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-125000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-103000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-95000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-239000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-162000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>927000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-125000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-234000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1027000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-23000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-74000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-58000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-87000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-88000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-53000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E102" s="3">
         <v>43000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-42000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-138000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>90000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-79000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>92000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-86000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>44000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>88000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-46000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-15000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>7000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,373 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E7" s="2">
         <v>44862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43952</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43770</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43679</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43588</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43497</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43406</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43315</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43224</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43133</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43042</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42951</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42860</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42769</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1909000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1831000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1996000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1782000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1898000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1836000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1878000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1717000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1818000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1764000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1757000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1540000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1630000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1594000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1615000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1192000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1177000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1115000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1175000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1128000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1145000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1078000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1103000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1018000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1746000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1688000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1612000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1770000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1585000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1685000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1604000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1661000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1517000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1609000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1564000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1574000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1373000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1456000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1409000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1435000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1070000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1048000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1003000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1074000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1021000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1036000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>979000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1007000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>919000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E10" s="3">
         <v>221000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>219000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>226000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>197000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>213000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>232000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>217000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>209000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>183000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>167000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>174000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>185000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>180000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>122000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>129000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>112000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>101000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>107000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>109000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>99000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>96000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>99000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,70 +1224,73 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>7000</v>
       </c>
       <c r="L14" s="3">
         <v>7000</v>
       </c>
       <c r="M14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>72000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14000</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1281,14 +1301,17 @@
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1776000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1706000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1871000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1697000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1784000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1703000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1748000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1615000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1708000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1664000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1679000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1452000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1536000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1499000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1522000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1185000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1104000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1041000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1109000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1066000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1073000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1019000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1040000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>965000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E18" s="3">
         <v>133000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>125000</v>
       </c>
       <c r="F18" s="3">
         <v>125000</v>
       </c>
       <c r="G18" s="3">
+        <v>125000</v>
+      </c>
+      <c r="H18" s="3">
         <v>85000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>114000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>133000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>130000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>102000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>110000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>94000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>73000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>66000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>62000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>72000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>59000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>63000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>53000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,67 +1617,68 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
       </c>
       <c r="R20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>2000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>1000</v>
@@ -1653,113 +1687,119 @@
         <v>1000</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>1000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E21" s="3">
         <v>167000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>165000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>163000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>125000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>158000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>171000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>174000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>153000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>158000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>152000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>109000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>128000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>130000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>24000</v>
-      </c>
-      <c r="T21" s="3">
-        <v>85000</v>
       </c>
       <c r="U21" s="3">
         <v>85000</v>
       </c>
       <c r="V21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="W21" s="3">
         <v>78000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>76000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>84000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>71000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>73000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>66000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="3">
         <v>30000</v>
       </c>
       <c r="F22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G22" s="3">
         <v>27000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>26000</v>
       </c>
       <c r="H22" s="3">
         <v>26000</v>
@@ -1768,224 +1808,233 @@
         <v>26000</v>
       </c>
       <c r="J22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="K22" s="3">
         <v>27000</v>
       </c>
       <c r="L22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M22" s="3">
         <v>32000</v>
       </c>
       <c r="N22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="O22" s="3">
         <v>31000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>22000</v>
       </c>
       <c r="Q22" s="3">
         <v>22000</v>
       </c>
       <c r="R22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="S22" s="3">
         <v>25000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>12000</v>
       </c>
       <c r="W22" s="3">
         <v>12000</v>
       </c>
       <c r="X22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>11000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>11000</v>
       </c>
       <c r="AA22" s="3">
         <v>11000</v>
       </c>
       <c r="AB22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>95000</v>
       </c>
       <c r="F23" s="3">
         <v>95000</v>
       </c>
       <c r="G23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="H23" s="3">
         <v>57000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>88000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>105000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>78000</v>
       </c>
       <c r="L23" s="3">
         <v>78000</v>
       </c>
       <c r="M23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="N23" s="3">
         <v>70000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>69000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>70000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>58000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>64000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>55000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>51000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>62000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>49000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>52000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>43000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>20000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>21000</v>
       </c>
       <c r="F24" s="3">
         <v>21000</v>
       </c>
       <c r="G24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H24" s="3">
         <v>13000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>17000</v>
       </c>
       <c r="Q24" s="3">
         <v>17000</v>
       </c>
       <c r="R24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S24" s="3">
         <v>14000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>19000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>12000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E26" s="3">
         <v>80000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>74000</v>
       </c>
       <c r="F26" s="3">
         <v>74000</v>
       </c>
       <c r="G26" s="3">
+        <v>74000</v>
+      </c>
+      <c r="H26" s="3">
         <v>44000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>71000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>82000</v>
       </c>
       <c r="J26" s="3">
         <v>82000</v>
       </c>
       <c r="K26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="L26" s="3">
         <v>61000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>56000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>57000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>49000</v>
       </c>
       <c r="V26" s="3">
         <v>49000</v>
       </c>
       <c r="W26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="X26" s="3">
         <v>34000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>43000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>36000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>49000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>31000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E27" s="3">
         <v>80000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>73000</v>
       </c>
       <c r="F27" s="3">
         <v>73000</v>
       </c>
       <c r="G27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H27" s="3">
         <v>43000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>82000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>81000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>59000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>55000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>57000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>55000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>49000</v>
       </c>
       <c r="V27" s="3">
         <v>49000</v>
       </c>
       <c r="W27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="X27" s="3">
         <v>34000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>43000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>36000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>49000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>31000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2348,17 +2409,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2366,11 +2427,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>17000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,67 +2611,70 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
       </c>
       <c r="R32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="V32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>-1000</v>
@@ -2613,99 +2683,105 @@
         <v>-1000</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E33" s="3">
         <v>80000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>73000</v>
       </c>
       <c r="F33" s="3">
         <v>73000</v>
       </c>
       <c r="G33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H33" s="3">
         <v>43000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>82000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>81000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>62000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>59000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>55000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>57000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>55000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>49000</v>
       </c>
       <c r="V33" s="3">
         <v>49000</v>
       </c>
       <c r="W33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="X33" s="3">
         <v>51000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>43000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>36000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>49000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>31000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E35" s="3">
         <v>80000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>73000</v>
       </c>
       <c r="F35" s="3">
         <v>73000</v>
       </c>
       <c r="G35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H35" s="3">
         <v>43000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>82000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>81000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>62000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>59000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>55000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>57000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>55000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>49000</v>
       </c>
       <c r="V35" s="3">
         <v>49000</v>
       </c>
       <c r="W35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="X35" s="3">
         <v>51000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>43000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>36000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>49000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>31000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E38" s="2">
         <v>44862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43952</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43770</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43679</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43588</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43497</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43406</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43315</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43224</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43133</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43042</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42951</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42860</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42769</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3095,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E41" s="3">
         <v>53000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>148000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>133000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>261000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>182000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>197000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>276000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>188000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>162000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>179000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>151000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>237000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>193000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>106000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>152000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>144000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>125000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>140000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>207000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>210000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,93 +3259,99 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1059000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1036000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1104000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1015000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1107000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1064000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1023000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>962000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1052000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1032000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1070000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1099000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1118000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1033000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1039000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1050000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>765000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>713000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>671000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>674000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>717000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>639000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>582000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>539000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>71000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -3263,11 +3359,11 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>64000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3275,11 +3371,11 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3">
         <v>78000</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -3296,8 +3392,8 @@
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3312,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>68000</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
@@ -3323,227 +3419,236 @@
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="3">
         <v>71000</v>
       </c>
-      <c r="AB44" s="3" t="s">
+      <c r="AC44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135000</v>
+        <v>81000</v>
       </c>
       <c r="E45" s="3">
         <v>135000</v>
       </c>
       <c r="F45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="G45" s="3">
         <v>131000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>78000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>128000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>146000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>156000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>167000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>184000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>179000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>144000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>130000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>127000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>146000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>114000</v>
-      </c>
-      <c r="U45" s="3">
-        <v>107000</v>
       </c>
       <c r="V45" s="3">
         <v>107000</v>
       </c>
       <c r="W45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="X45" s="3">
         <v>64000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>134000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>113000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>128000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>81000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1247000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1270000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1291000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1263000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1383000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1343000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1440000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1289000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1401000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1413000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1525000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1430000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1424000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1342000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1317000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1433000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1072000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>926000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>930000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>950000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>976000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>892000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>917000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>901000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E47" s="3">
         <v>42000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>44000</v>
       </c>
       <c r="F47" s="3">
         <v>44000</v>
       </c>
       <c r="G47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="H47" s="3">
         <v>45000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>48000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>47000</v>
       </c>
       <c r="J47" s="3">
         <v>47000</v>
       </c>
       <c r="K47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="L47" s="3">
         <v>18000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>42000</v>
       </c>
       <c r="M47" s="3">
         <v>42000</v>
       </c>
       <c r="N47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="O47" s="3">
         <v>40000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>44000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13000</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3551,8 +3656,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3569,168 +3674,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E48" s="3">
         <v>261000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>268000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>284000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>309000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>326000</v>
       </c>
       <c r="I48" s="3">
         <v>326000</v>
       </c>
       <c r="J48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="K48" s="3">
         <v>333000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>344000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>349000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>354000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>351000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>281000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>282000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>281000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>269000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>103000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>67000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>70000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>66000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>61000</v>
       </c>
       <c r="X48" s="3">
         <v>61000</v>
       </c>
       <c r="Y48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>57000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>58000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>60000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3920000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3951000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3980000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4012000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4045000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4071000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4098000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3893000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3925000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3966000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4006000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3987000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2850000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2867000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2874000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2898000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2923000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1027000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1032000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1037000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1042000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1047000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1052000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1058000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1063000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4006,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E52" s="3">
         <v>127000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>92000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>84000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>88000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>91000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>99000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>117000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>132000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>113000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>106000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>85000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>89000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>81000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>32000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>20000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5543000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5628000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5654000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5716000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5746000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5916000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5905000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5812000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5723000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5875000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5947000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6016000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4711000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4700000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4627000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4607000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4563000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2202000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2060000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2061000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2073000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2101000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2019000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2050000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2042000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,488 +4319,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E57" s="3">
         <v>784000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>813000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>776000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>612000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>828000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>846000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>843000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>517000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>806000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>809000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>741000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>527000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>648000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>578000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>592000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>455000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>442000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>425000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>459000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>397000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>490000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>420000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>443000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>329000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>119000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>148000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>119000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>112000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>104000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>68000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>90000</v>
       </c>
       <c r="M58" s="3">
         <v>90000</v>
       </c>
       <c r="N58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="O58" s="3">
         <v>83000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>70000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>64000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>151000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>37000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>24000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>11000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>49000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>45000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>41000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>37000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>58000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>24000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>25000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E59" s="3">
         <v>431000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>377000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>439000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>592000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>448000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>425000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>451000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>690000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>537000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>474000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>628000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>531000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>479000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>419000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>381000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>418000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>229000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>188000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>191000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>257000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>203000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>156000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>180000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>345000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1230000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1190000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1334000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1352000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1395000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1383000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1398000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1275000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1433000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1373000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1452000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1128000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1191000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1148000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1010000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>897000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>682000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>662000</v>
-      </c>
-      <c r="V60" s="3">
-        <v>695000</v>
       </c>
       <c r="W60" s="3">
         <v>695000</v>
       </c>
       <c r="X60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="Y60" s="3">
         <v>730000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>634000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>647000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>623000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2358000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2462000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2342000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2370000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2433000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2461000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2390000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2447000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2446000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2657000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2801000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1851000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1872000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1887000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1902000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2065000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1026000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>959000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>971000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>983000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>994000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1014000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1022000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E62" s="3">
         <v>344000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>349000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>390000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>395000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>443000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>433000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>437000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>449000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>486000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>467000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>355000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>305000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>248000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>243000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>222000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>102000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>83000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>72000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>70000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>68000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>55000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>54000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>53000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>48000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3849000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3942000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4011000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4076000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4127000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4281000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4287000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4235000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4181000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4376000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4510000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4621000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3294000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3320000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3288000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3145000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3078000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1791000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1693000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1736000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1746000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1779000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1694000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1714000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1693000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E72" s="3">
         <v>981000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>923000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>870000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>818000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>796000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>747000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>687000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>627000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>587000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>550000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>520000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>506000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>468000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>435000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>400000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>367000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>390000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>355000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>320000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>323000</v>
-      </c>
-      <c r="X72" s="3">
-        <v>322000</v>
       </c>
       <c r="Y72" s="3">
         <v>322000</v>
       </c>
       <c r="Z72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="AA72" s="3">
         <v>301000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>260000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1694000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1686000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1643000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1640000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1619000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1635000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1618000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1577000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1542000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1499000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1437000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1395000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1417000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1380000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1339000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1462000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1485000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>411000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>367000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>325000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>327000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>322000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>325000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>336000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>349000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44960</v>
+      </c>
+      <c r="E80" s="2">
         <v>44862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43952</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43770</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43679</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43588</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43497</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43406</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43315</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43224</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43133</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43042</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42951</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42860</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42769</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E81" s="3">
         <v>80000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>73000</v>
       </c>
       <c r="F81" s="3">
         <v>73000</v>
       </c>
       <c r="G81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="H81" s="3">
         <v>43000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>82000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>81000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>62000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>59000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>55000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>57000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>55000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>49000</v>
       </c>
       <c r="V81" s="3">
         <v>49000</v>
       </c>
       <c r="W81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="X81" s="3">
         <v>51000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>43000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>36000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>49000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>31000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,61 +6212,62 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E83" s="3">
         <v>37000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>42000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>42000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>48000</v>
       </c>
       <c r="L83" s="3">
         <v>48000</v>
       </c>
       <c r="M83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16000</v>
-      </c>
-      <c r="T83" s="3">
-        <v>11000</v>
       </c>
       <c r="U83" s="3">
         <v>11000</v>
@@ -6077,25 +6276,28 @@
         <v>11000</v>
       </c>
       <c r="W83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X83" s="3">
         <v>13000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>11000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>12000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>10000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E89" s="3">
         <v>128000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>141000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>118000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>103000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>134000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>92000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>189000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>231000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>367000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>69000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>116000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>95000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>178000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>22000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>86000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>88000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>84000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>80000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>88000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>62000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6824,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-252000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-21000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-30000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,28 +7187,29 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-21000</v>
       </c>
       <c r="H96" s="3">
         <v>-21000</v>
       </c>
       <c r="I96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="J96" s="3">
         <v>-22000</v>
@@ -6984,28 +7218,28 @@
         <v>-22000</v>
       </c>
       <c r="L96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="M96" s="3">
         <v>-21000</v>
       </c>
       <c r="N96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-23000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-21000</v>
       </c>
       <c r="Q96" s="3">
         <v>-21000</v>
       </c>
       <c r="R96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-13000</v>
       </c>
       <c r="T96" s="3">
         <v>-13000</v>
@@ -7014,28 +7248,31 @@
         <v>-13000</v>
       </c>
       <c r="V96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="W96" s="3">
         <v>-14000</v>
       </c>
       <c r="X96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-14000</v>
       </c>
       <c r="Z96" s="3">
         <v>-14000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7517,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-168000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-87000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-162000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-125000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-103000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-95000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-239000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-162000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>927000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-125000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-234000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1027000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-23000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-74000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-58000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-87000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-88000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-53000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7683,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-42000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-138000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>90000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-79000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>92000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-86000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>88000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-46000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-66000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>7000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,386 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E7" s="2">
         <v>44960</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43770</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43679</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43497</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43406</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43224</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43133</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43042</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42951</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42860</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42769</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2028000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1968000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1909000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1831000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1996000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1782000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1898000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1836000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1878000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1717000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1818000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1764000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1757000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1540000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1630000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1594000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1615000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1192000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1177000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1115000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1175000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1128000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1145000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1078000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1103000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1018000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1746000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1688000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1612000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1770000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1585000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1685000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1604000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1661000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1517000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1609000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1564000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1574000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1373000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1456000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1409000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1435000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1070000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1048000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1003000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1074000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1021000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1036000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>979000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1007000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>919000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E10" s="3">
         <v>222000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>221000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>219000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>226000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>197000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>213000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>232000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>217000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>209000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>183000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>167000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>174000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>185000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>180000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>122000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>129000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>112000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>101000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>107000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>109000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>99000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>96000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>99000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,73 +1244,76 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>7000</v>
       </c>
       <c r="M14" s="3">
         <v>7000</v>
       </c>
       <c r="N14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>72000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14000</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1304,14 +1324,17 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1393,8 +1416,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1850000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1776000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1706000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1871000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1697000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1784000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1703000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1748000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1615000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1708000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1664000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1679000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1452000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1536000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1499000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1522000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1185000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1104000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1041000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1109000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1066000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1073000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1019000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1040000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>965000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E18" s="3">
         <v>118000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>133000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>125000</v>
       </c>
       <c r="G18" s="3">
         <v>125000</v>
       </c>
       <c r="H18" s="3">
+        <v>125000</v>
+      </c>
+      <c r="I18" s="3">
         <v>85000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>114000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>133000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>130000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>102000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>110000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>78000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>94000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>73000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>66000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>62000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>72000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>59000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>63000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>53000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,70 +1651,71 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
       </c>
       <c r="S20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="3">
         <v>2000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="W20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>1000</v>
@@ -1690,102 +1724,108 @@
         <v>1000</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>1000</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E21" s="3">
         <v>157000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>167000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>165000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>163000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>125000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>158000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>171000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>174000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>153000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>158000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>152000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>109000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>128000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>130000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>131000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>24000</v>
-      </c>
-      <c r="U21" s="3">
-        <v>85000</v>
       </c>
       <c r="V21" s="3">
         <v>85000</v>
       </c>
       <c r="W21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="X21" s="3">
         <v>78000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>76000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>84000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>71000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>73000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>66000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1793,16 +1833,16 @@
         <v>33000</v>
       </c>
       <c r="E22" s="3">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="F22" s="3">
         <v>30000</v>
       </c>
       <c r="G22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H22" s="3">
         <v>27000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>26000</v>
       </c>
       <c r="I22" s="3">
         <v>26000</v>
@@ -1811,230 +1851,239 @@
         <v>26000</v>
       </c>
       <c r="K22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L22" s="3">
         <v>27000</v>
       </c>
       <c r="M22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="N22" s="3">
         <v>32000</v>
       </c>
       <c r="O22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="P22" s="3">
         <v>31000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>22000</v>
       </c>
       <c r="R22" s="3">
         <v>22000</v>
       </c>
       <c r="S22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="T22" s="3">
         <v>25000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>16000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>12000</v>
       </c>
       <c r="X22" s="3">
         <v>12000</v>
       </c>
       <c r="Y22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>11000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>11000</v>
       </c>
       <c r="AB22" s="3">
         <v>11000</v>
       </c>
       <c r="AC22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E23" s="3">
         <v>85000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>95000</v>
       </c>
       <c r="G23" s="3">
         <v>95000</v>
       </c>
       <c r="H23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="I23" s="3">
         <v>57000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>88000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>108000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>78000</v>
       </c>
       <c r="M23" s="3">
         <v>78000</v>
       </c>
       <c r="N23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="O23" s="3">
         <v>70000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>69000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>73000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>70000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>58000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>64000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>55000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>51000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>62000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>49000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>52000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>43000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>20000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>21000</v>
       </c>
       <c r="G24" s="3">
         <v>21000</v>
       </c>
       <c r="H24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I24" s="3">
         <v>13000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>17000</v>
       </c>
       <c r="R24" s="3">
         <v>17000</v>
       </c>
       <c r="S24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="T24" s="3">
         <v>14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>17000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>19000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>12000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E26" s="3">
         <v>75000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>74000</v>
       </c>
       <c r="G26" s="3">
         <v>74000</v>
       </c>
       <c r="H26" s="3">
+        <v>74000</v>
+      </c>
+      <c r="I26" s="3">
         <v>44000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>82000</v>
       </c>
       <c r="K26" s="3">
         <v>82000</v>
       </c>
       <c r="L26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="M26" s="3">
         <v>61000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>56000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>57000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>56000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>49000</v>
       </c>
       <c r="W26" s="3">
         <v>49000</v>
       </c>
       <c r="X26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Y26" s="3">
         <v>34000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>43000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>36000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>49000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>31000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E27" s="3">
         <v>74000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>80000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>73000</v>
       </c>
       <c r="G27" s="3">
         <v>73000</v>
       </c>
       <c r="H27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I27" s="3">
         <v>43000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>82000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>62000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>59000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>55000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>55000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>49000</v>
       </c>
       <c r="W27" s="3">
         <v>49000</v>
       </c>
       <c r="X27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Y27" s="3">
         <v>34000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>43000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>36000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>49000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>31000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2412,17 +2473,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2430,11 +2491,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>17000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2448,8 +2509,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,70 +2681,73 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
       </c>
       <c r="S32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="W32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>-1000</v>
@@ -2686,102 +2756,108 @@
         <v>-1000</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E33" s="3">
         <v>74000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>80000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>73000</v>
       </c>
       <c r="G33" s="3">
         <v>73000</v>
       </c>
       <c r="H33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I33" s="3">
         <v>43000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>82000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>81000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>62000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>55000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>55000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>49000</v>
       </c>
       <c r="W33" s="3">
         <v>49000</v>
       </c>
       <c r="X33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Y33" s="3">
         <v>51000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>43000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>36000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>49000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>31000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E35" s="3">
         <v>74000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>80000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>73000</v>
       </c>
       <c r="G35" s="3">
         <v>73000</v>
       </c>
       <c r="H35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I35" s="3">
         <v>43000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>82000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>81000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>62000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>55000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>55000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>49000</v>
       </c>
       <c r="W35" s="3">
         <v>49000</v>
       </c>
       <c r="X35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Y35" s="3">
         <v>51000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>43000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>36000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>49000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>31000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E38" s="2">
         <v>44960</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43770</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43679</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43588</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43497</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43406</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43315</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43224</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43133</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43042</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42951</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42860</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42769</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E41" s="3">
         <v>109000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>106000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>148000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>133000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>261000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>182000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>197000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>276000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>188000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>162000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>179000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>151000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>237000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>193000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>106000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>152000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>144000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>125000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>140000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>207000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>210000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,99 +3352,105 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>995000</v>
+      </c>
+      <c r="E43" s="3">
         <v>936000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1059000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1036000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1104000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1015000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1107000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1064000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1023000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>962000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1052000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1032000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1070000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1099000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1118000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1033000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1039000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1050000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>765000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>713000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>671000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>674000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>717000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>639000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>582000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>539000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>71000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -3362,11 +3458,11 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3">
         <v>64000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3374,11 +3470,11 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3">
         <v>78000</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
@@ -3395,8 +3491,8 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3411,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
         <v>68000</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
@@ -3422,180 +3518,189 @@
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3">
         <v>71000</v>
       </c>
-      <c r="AC44" s="3" t="s">
+      <c r="AD44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E45" s="3">
         <v>81000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>135000</v>
       </c>
       <c r="F45" s="3">
         <v>135000</v>
       </c>
       <c r="G45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="H45" s="3">
         <v>131000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>78000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>128000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>146000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>156000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>78000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>184000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>179000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>143000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>144000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>130000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>127000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>146000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>114000</v>
-      </c>
-      <c r="V45" s="3">
-        <v>107000</v>
       </c>
       <c r="W45" s="3">
         <v>107000</v>
       </c>
       <c r="X45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="Y45" s="3">
         <v>64000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>134000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>113000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>128000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>81000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1675000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1197000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1247000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1270000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1291000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1263000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1383000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1343000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1440000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1289000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1401000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1413000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1525000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1430000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1424000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1342000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1317000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1433000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1072000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>926000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>930000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>950000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>976000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>892000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>917000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>901000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3603,55 +3708,55 @@
         <v>43000</v>
       </c>
       <c r="E47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F47" s="3">
         <v>42000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>44000</v>
       </c>
       <c r="G47" s="3">
         <v>44000</v>
       </c>
       <c r="H47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I47" s="3">
         <v>45000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>48000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>47000</v>
       </c>
       <c r="K47" s="3">
         <v>47000</v>
       </c>
       <c r="L47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="M47" s="3">
         <v>18000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>42000</v>
       </c>
       <c r="N47" s="3">
         <v>42000</v>
       </c>
       <c r="O47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="P47" s="3">
         <v>40000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>44000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>41000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13000</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3659,8 +3764,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3677,174 +3782,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E48" s="3">
         <v>250000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>261000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>268000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>284000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>309000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>326000</v>
       </c>
       <c r="J48" s="3">
         <v>326000</v>
       </c>
       <c r="K48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="L48" s="3">
         <v>333000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>344000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>349000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>354000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>351000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>281000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>282000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>281000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>269000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>103000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>67000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>70000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>66000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>61000</v>
       </c>
       <c r="Y48" s="3">
         <v>61000</v>
       </c>
       <c r="Z48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AA48" s="3">
         <v>57000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>58000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>60000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3831000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3920000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3951000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3980000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4012000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4045000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4071000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4098000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3893000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3925000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3966000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4006000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3987000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2850000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2867000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2874000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2898000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2923000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1027000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1032000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1037000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1042000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1047000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1052000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1058000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1063000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,91 +4126,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E52" s="3">
         <v>133000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>127000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>92000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>85000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>84000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>88000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>99000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>147000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>117000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>132000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>113000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>106000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>85000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>81000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>91000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>36000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>32000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>20000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>17000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>18000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5957000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5543000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5628000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5654000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5716000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5746000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5916000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5905000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5812000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5723000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5875000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5947000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6016000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4711000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4700000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4627000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4607000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4563000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2202000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2060000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2061000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2073000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2101000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2019000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2050000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2042000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,506 +4450,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E57" s="3">
         <v>624000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>784000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>813000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>776000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>612000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>828000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>846000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>843000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>517000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>806000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>809000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>741000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>527000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>648000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>578000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>592000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>455000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>442000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>425000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>459000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>397000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>490000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>420000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>443000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>329000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E58" s="3">
         <v>31000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>119000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>148000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>119000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>112000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>104000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>68000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>90000</v>
       </c>
       <c r="N58" s="3">
         <v>90000</v>
       </c>
       <c r="O58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="P58" s="3">
         <v>83000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>70000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>64000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>151000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>37000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>24000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>11000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>49000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>45000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>41000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>37000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>58000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>24000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>25000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E59" s="3">
         <v>471000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>431000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>377000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>439000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>592000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>448000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>425000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>690000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>537000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>474000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>628000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>531000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>479000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>419000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>381000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>418000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>229000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>188000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>191000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>257000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>203000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>156000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>180000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>345000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1553000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1126000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1230000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1190000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1334000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1352000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1395000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1383000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1398000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1275000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1433000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1373000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1452000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1128000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1191000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1148000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1010000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>897000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>682000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>662000</v>
-      </c>
-      <c r="W60" s="3">
-        <v>695000</v>
       </c>
       <c r="X60" s="3">
         <v>695000</v>
       </c>
       <c r="Y60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="Z60" s="3">
         <v>730000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>634000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>647000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>623000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2329000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2343000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2358000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2462000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2342000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2370000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2433000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2461000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2390000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2447000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2446000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2657000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2801000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1851000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1872000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1887000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1902000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2065000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1026000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>959000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>971000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>983000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>994000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1006000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1014000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1022000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>383000</v>
+      </c>
+      <c r="E62" s="3">
         <v>370000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>344000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>349000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>390000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>395000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>443000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>433000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>437000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>449000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>486000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>467000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>355000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>305000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>248000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>243000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>222000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>102000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>83000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>72000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>70000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>68000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>55000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>54000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>53000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>48000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4265000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3849000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3942000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4011000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4076000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4127000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4281000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4287000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4235000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4181000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4376000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4510000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4621000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3294000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3320000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3288000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3145000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3078000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1791000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1693000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1736000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1746000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1779000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1694000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1714000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1693000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1035000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>981000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>923000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>870000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>818000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>796000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>747000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>687000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>627000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>587000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>550000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>520000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>506000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>468000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>435000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>400000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>367000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>390000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>355000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>320000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>323000</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>322000</v>
       </c>
       <c r="Z72" s="3">
         <v>322000</v>
       </c>
       <c r="AA72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="AB72" s="3">
         <v>301000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>260000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1692000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1694000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1686000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1643000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1640000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1619000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1635000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1618000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1577000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1542000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1499000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1437000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1395000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1417000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1380000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1339000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1462000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1485000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>411000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>367000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>325000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>327000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>322000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>325000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>336000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>349000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E80" s="2">
         <v>44960</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43770</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43679</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43588</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43497</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43406</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43315</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43224</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43133</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43042</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42951</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42860</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42769</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E81" s="3">
         <v>74000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>80000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>73000</v>
       </c>
       <c r="G81" s="3">
         <v>73000</v>
       </c>
       <c r="H81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I81" s="3">
         <v>43000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>82000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>81000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>62000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>55000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>55000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>49000</v>
       </c>
       <c r="W81" s="3">
         <v>49000</v>
       </c>
       <c r="X81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Y81" s="3">
         <v>51000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>43000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>36000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>49000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>31000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,64 +6411,65 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E83" s="3">
         <v>39000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>42000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>42000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>48000</v>
       </c>
       <c r="M83" s="3">
         <v>48000</v>
       </c>
       <c r="N83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="O83" s="3">
         <v>50000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>11000</v>
       </c>
       <c r="V83" s="3">
         <v>11000</v>
@@ -6279,25 +6478,28 @@
         <v>11000</v>
       </c>
       <c r="X83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>13000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>11000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>12000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>10000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>12000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E89" s="3">
         <v>145000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>128000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>141000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>118000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>103000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>134000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>92000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>189000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>231000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>367000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>69000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>116000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>178000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>22000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>86000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>88000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>84000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>80000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-35000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>88000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>62000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-252000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-30000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,31 +7421,32 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-21000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-20000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-21000</v>
       </c>
       <c r="I96" s="3">
         <v>-21000</v>
       </c>
       <c r="J96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="K96" s="3">
         <v>-22000</v>
@@ -7221,28 +7455,28 @@
         <v>-22000</v>
       </c>
       <c r="M96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="N96" s="3">
         <v>-21000</v>
       </c>
       <c r="O96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-23000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-21000</v>
       </c>
       <c r="R96" s="3">
         <v>-21000</v>
       </c>
       <c r="S96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-13000</v>
       </c>
       <c r="U96" s="3">
         <v>-13000</v>
@@ -7251,28 +7485,31 @@
         <v>-13000</v>
       </c>
       <c r="W96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="X96" s="3">
         <v>-14000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-14000</v>
       </c>
       <c r="AA96" s="3">
         <v>-14000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,91 +7763,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-76000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-168000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-87000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-162000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-125000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-103000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-95000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-239000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-162000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>927000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-125000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-60000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-234000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1027000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-74000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-58000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-87000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-88000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-53000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +7935,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E102" s="3">
         <v>56000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-42000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-138000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>90000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-79000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>92000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-86000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>44000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>88000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-46000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-66000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>7000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>88000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAIC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>SAIC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E7" s="2">
         <v>45051</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44960</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43952</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43770</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43679</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43588</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43497</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43406</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43315</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43224</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43133</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43042</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42951</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42860</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42769</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2028000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1968000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1909000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1831000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1996000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1782000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1898000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1836000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1878000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1717000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1818000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1764000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1757000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1540000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1630000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1594000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1615000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1192000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1177000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1115000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1175000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1128000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1145000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1078000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1103000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1018000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1114000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1568000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1793000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1746000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1688000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1612000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1770000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1585000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1685000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1604000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1661000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1517000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1609000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1564000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1574000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1373000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1456000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1409000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1435000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1070000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1048000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1003000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1074000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1021000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1036000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>979000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1007000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>919000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E10" s="3">
         <v>235000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>222000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>221000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>219000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>226000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>197000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>213000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>232000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>217000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>209000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>183000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>167000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>174000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>185000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>180000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>122000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>129000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>112000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>101000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>107000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>109000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>99000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>96000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>99000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>114000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,76 +1264,79 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>7000</v>
       </c>
       <c r="N14" s="3">
         <v>7000</v>
       </c>
       <c r="O14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>72000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14000</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1327,14 +1347,17 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1871000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1850000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1776000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1706000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1871000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1697000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1784000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1703000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1748000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1615000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1708000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1664000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1679000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1452000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1536000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1499000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1522000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1185000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1104000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1041000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1109000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1066000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1073000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1019000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1040000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>965000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1040000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E18" s="3">
         <v>157000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>118000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>133000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>125000</v>
       </c>
       <c r="H18" s="3">
         <v>125000</v>
       </c>
       <c r="I18" s="3">
+        <v>125000</v>
+      </c>
+      <c r="J18" s="3">
         <v>85000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>114000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>133000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>130000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>102000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>110000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>78000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>94000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>73000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>74000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>66000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>62000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>72000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>59000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>63000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>53000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,73 +1685,74 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
       </c>
       <c r="T20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="3">
         <v>2000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1000</v>
       </c>
       <c r="V20" s="3">
         <v>1000</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>1000</v>
@@ -1727,105 +1761,111 @@
         <v>1000</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>1000</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E21" s="3">
         <v>192000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>157000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>167000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>165000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>163000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>158000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>174000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>153000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>158000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>152000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>109000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>125000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>128000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>130000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>131000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>24000</v>
-      </c>
-      <c r="V21" s="3">
-        <v>85000</v>
       </c>
       <c r="W21" s="3">
         <v>85000</v>
       </c>
       <c r="X21" s="3">
+        <v>85000</v>
+      </c>
+      <c r="Y21" s="3">
         <v>78000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>76000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>84000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>71000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>73000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>66000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1836,16 +1876,16 @@
         <v>33000</v>
       </c>
       <c r="F22" s="3">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="G22" s="3">
         <v>30000</v>
       </c>
       <c r="H22" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I22" s="3">
         <v>27000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>26000</v>
       </c>
       <c r="J22" s="3">
         <v>26000</v>
@@ -1854,236 +1894,245 @@
         <v>26000</v>
       </c>
       <c r="L22" s="3">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M22" s="3">
         <v>27000</v>
       </c>
       <c r="N22" s="3">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O22" s="3">
         <v>32000</v>
       </c>
       <c r="P22" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>31000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>22000</v>
       </c>
       <c r="S22" s="3">
         <v>22000</v>
       </c>
       <c r="T22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="U22" s="3">
         <v>25000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>16000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>12000</v>
       </c>
       <c r="Y22" s="3">
         <v>12000</v>
       </c>
       <c r="Z22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>11000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>11000</v>
       </c>
       <c r="AC22" s="3">
         <v>11000</v>
       </c>
       <c r="AD22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E23" s="3">
         <v>123000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>85000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>95000</v>
       </c>
       <c r="H23" s="3">
         <v>95000</v>
       </c>
       <c r="I23" s="3">
+        <v>95000</v>
+      </c>
+      <c r="J23" s="3">
         <v>57000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>88000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>108000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>105000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>78000</v>
       </c>
       <c r="N23" s="3">
         <v>78000</v>
       </c>
       <c r="O23" s="3">
+        <v>78000</v>
+      </c>
+      <c r="P23" s="3">
         <v>70000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>69000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>73000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>70000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>58000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>64000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>55000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>51000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>62000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>49000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>52000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>43000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>21000</v>
       </c>
       <c r="H24" s="3">
         <v>21000</v>
       </c>
       <c r="I24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J24" s="3">
         <v>13000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>17000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>17000</v>
       </c>
       <c r="S24" s="3">
         <v>17000</v>
       </c>
       <c r="T24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="U24" s="3">
         <v>14000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>17000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>3000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E26" s="3">
         <v>98000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>75000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>74000</v>
       </c>
       <c r="H26" s="3">
         <v>74000</v>
       </c>
       <c r="I26" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J26" s="3">
         <v>44000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>82000</v>
       </c>
       <c r="L26" s="3">
         <v>82000</v>
       </c>
       <c r="M26" s="3">
+        <v>82000</v>
+      </c>
+      <c r="N26" s="3">
         <v>61000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>37000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>56000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>57000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>56000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>49000</v>
       </c>
       <c r="X26" s="3">
         <v>49000</v>
       </c>
       <c r="Y26" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Z26" s="3">
         <v>34000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>43000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>36000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>49000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>31000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E27" s="3">
         <v>98000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>74000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>80000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>73000</v>
       </c>
       <c r="H27" s="3">
         <v>73000</v>
       </c>
       <c r="I27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J27" s="3">
         <v>43000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>71000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>82000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>62000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>55000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>55000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>49000</v>
       </c>
       <c r="X27" s="3">
         <v>49000</v>
       </c>
       <c r="Y27" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Z27" s="3">
         <v>34000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>43000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>36000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>49000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>31000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,17 +2537,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2494,11 +2555,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>17000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,73 +2751,76 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
       </c>
       <c r="T32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-1000</v>
       </c>
       <c r="V32" s="3">
         <v>-1000</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="X32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-1000</v>
@@ -2759,105 +2829,111 @@
         <v>-1000</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E33" s="3">
         <v>98000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>80000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>73000</v>
       </c>
       <c r="H33" s="3">
         <v>73000</v>
       </c>
       <c r="I33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J33" s="3">
         <v>43000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>71000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>82000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>62000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>55000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>55000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>49000</v>
       </c>
       <c r="X33" s="3">
         <v>49000</v>
       </c>
       <c r="Y33" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Z33" s="3">
         <v>51000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>43000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>36000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>49000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>31000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E35" s="3">
         <v>98000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>80000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>73000</v>
       </c>
       <c r="H35" s="3">
         <v>73000</v>
       </c>
       <c r="I35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J35" s="3">
         <v>43000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>71000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>82000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>62000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>55000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>55000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>49000</v>
       </c>
       <c r="X35" s="3">
         <v>49000</v>
       </c>
       <c r="Y35" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Z35" s="3">
         <v>51000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>43000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>36000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>49000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>31000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E38" s="2">
         <v>45051</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44960</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43952</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43770</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43679</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43588</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43497</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43406</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43315</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43224</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43133</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43042</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42951</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42860</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42769</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E41" s="3">
         <v>422000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>106000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>148000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>133000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>261000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>182000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>197000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>276000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>188000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>162000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>179000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>151000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>237000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>193000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>106000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>152000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>144000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>125000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>140000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>207000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>210000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,105 +3445,111 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E43" s="3">
         <v>995000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>936000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1059000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1036000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1104000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1015000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1107000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1064000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1023000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>962000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1052000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1032000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1070000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1099000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1118000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1033000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1039000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1050000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>765000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>713000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>671000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>674000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>717000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>639000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>582000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>539000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>616000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
         <v>71000</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
@@ -3461,11 +3557,11 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>64000</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -3473,11 +3569,11 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>78000</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
@@ -3494,8 +3590,8 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3510,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
         <v>68000</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
@@ -3521,245 +3617,254 @@
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD44" s="3">
         <v>71000</v>
       </c>
-      <c r="AD44" s="3" t="s">
+      <c r="AE44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E45" s="3">
         <v>258000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>81000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>135000</v>
       </c>
       <c r="G45" s="3">
         <v>135000</v>
       </c>
       <c r="H45" s="3">
+        <v>135000</v>
+      </c>
+      <c r="I45" s="3">
         <v>131000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>78000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>128000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>146000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>156000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>78000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>184000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>179000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>143000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>144000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>130000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>127000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>146000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>114000</v>
-      </c>
-      <c r="W45" s="3">
-        <v>107000</v>
       </c>
       <c r="X45" s="3">
         <v>107000</v>
       </c>
       <c r="Y45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="Z45" s="3">
         <v>64000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>134000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>113000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>128000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>81000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1675000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1197000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1247000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1270000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1291000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1263000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1383000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1343000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1440000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1289000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1401000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1413000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1525000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1430000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1424000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1342000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1317000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1433000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1072000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>926000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>930000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>950000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>976000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>892000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>917000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>901000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>970000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="E47" s="3">
         <v>43000</v>
       </c>
       <c r="F47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="G47" s="3">
         <v>42000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>44000</v>
       </c>
       <c r="H47" s="3">
         <v>44000</v>
       </c>
       <c r="I47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J47" s="3">
         <v>45000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>48000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>47000</v>
       </c>
       <c r="L47" s="3">
         <v>47000</v>
       </c>
       <c r="M47" s="3">
+        <v>47000</v>
+      </c>
+      <c r="N47" s="3">
         <v>18000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>42000</v>
       </c>
       <c r="O47" s="3">
         <v>42000</v>
       </c>
       <c r="P47" s="3">
+        <v>42000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>40000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>44000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>41000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13000</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3767,8 +3872,8 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3785,180 +3890,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230000</v>
+      </c>
+      <c r="E48" s="3">
         <v>245000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>250000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>261000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>268000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>284000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>309000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>326000</v>
       </c>
       <c r="K48" s="3">
         <v>326000</v>
       </c>
       <c r="L48" s="3">
+        <v>326000</v>
+      </c>
+      <c r="M48" s="3">
         <v>333000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>344000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>349000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>354000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>351000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>281000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>282000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>281000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>269000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>103000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>67000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>70000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>66000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>61000</v>
       </c>
       <c r="Z48" s="3">
         <v>61000</v>
       </c>
       <c r="AA48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>57000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>58000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>60000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3802000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3831000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3920000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3951000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3980000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4012000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4045000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4071000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4098000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3893000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3925000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3966000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4006000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3987000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2850000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2867000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2874000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2898000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2923000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1027000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1032000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1037000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1042000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1047000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1052000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1058000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1063000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1069000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,94 +4246,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E52" s="3">
         <v>163000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>133000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>127000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>92000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>85000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>84000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>88000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>99000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>147000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>117000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>132000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>113000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>106000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>85000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>89000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>81000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>91000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>32000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>20000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>17000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>18000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5672000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5957000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5543000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5628000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5654000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5716000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5746000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5916000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5905000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5812000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5723000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5875000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5947000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6016000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4711000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4700000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4627000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4607000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4563000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2202000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2060000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2061000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2073000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2101000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2019000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2050000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2042000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2118000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,524 +4581,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E57" s="3">
         <v>762000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>624000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>784000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>813000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>776000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>612000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>828000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>846000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>843000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>517000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>806000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>809000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>741000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>527000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>648000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>578000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>592000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>455000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>442000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>425000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>459000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>397000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>490000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>420000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>443000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>329000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>451000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E58" s="3">
         <v>46000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>31000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>119000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>148000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>119000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>112000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>104000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>68000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>90000</v>
       </c>
       <c r="O58" s="3">
         <v>90000</v>
       </c>
       <c r="P58" s="3">
+        <v>90000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>83000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>70000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>64000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>151000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>37000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>24000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>11000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>49000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>45000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>41000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>37000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>58000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>24000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>25000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>375000</v>
+      </c>
+      <c r="E59" s="3">
         <v>745000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>471000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>431000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>377000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>439000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>592000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>448000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>425000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>690000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>537000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>474000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>628000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>531000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>479000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>419000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>381000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>418000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>229000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>188000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>191000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>257000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>203000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>156000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>180000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>345000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>217000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1553000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1126000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1230000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1190000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1334000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1352000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1395000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1383000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1398000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1275000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1433000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1373000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1452000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1128000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1191000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1148000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1010000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>897000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>682000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>662000</v>
-      </c>
-      <c r="X60" s="3">
-        <v>695000</v>
       </c>
       <c r="Y60" s="3">
         <v>695000</v>
       </c>
       <c r="Z60" s="3">
+        <v>695000</v>
+      </c>
+      <c r="AA60" s="3">
         <v>730000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>634000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>647000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>623000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>676000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2215000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2329000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2343000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2358000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2462000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2342000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2370000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2433000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2461000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2390000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2447000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2446000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2657000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2801000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1851000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1872000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1887000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1902000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2065000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1026000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>959000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>971000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>983000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>994000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1006000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1014000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1022000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1038000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E62" s="3">
         <v>383000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>370000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>344000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>349000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>390000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>395000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>443000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>433000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>437000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>449000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>486000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>467000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>355000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>305000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>248000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>243000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>222000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>102000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>83000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>72000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>70000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>68000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>55000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>54000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>53000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>48000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3829000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4265000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3849000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3942000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4011000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4076000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4127000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4281000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4287000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4235000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4181000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4376000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4510000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4621000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3294000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3320000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3288000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3145000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3078000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1791000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1693000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1736000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1746000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1779000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1694000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1714000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1693000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1761000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1113000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1035000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>981000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>923000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>870000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>818000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>796000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>747000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>687000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>627000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>587000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>550000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>520000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>506000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>468000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>435000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>400000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>367000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>390000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>355000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>320000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>323000</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>322000</v>
       </c>
       <c r="AA72" s="3">
         <v>322000</v>
       </c>
       <c r="AB72" s="3">
+        <v>322000</v>
+      </c>
+      <c r="AC72" s="3">
         <v>301000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>260000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1843000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1692000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1694000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1686000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1643000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1640000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1619000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1635000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1618000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1577000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1542000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1499000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1437000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1395000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1417000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1380000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1339000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1462000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1485000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>411000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>367000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>325000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>327000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>322000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>325000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>336000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>349000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45142</v>
+      </c>
+      <c r="E80" s="2">
         <v>45051</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44960</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43952</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43770</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43679</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43588</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43497</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43406</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43315</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43224</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43133</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43042</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42951</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42860</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42769</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42678</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E81" s="3">
         <v>98000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>80000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>73000</v>
       </c>
       <c r="H81" s="3">
         <v>73000</v>
       </c>
       <c r="I81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J81" s="3">
         <v>43000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>71000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>82000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>62000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>55000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>55000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>49000</v>
       </c>
       <c r="X81" s="3">
         <v>49000</v>
       </c>
       <c r="Y81" s="3">
+        <v>49000</v>
+      </c>
+      <c r="Z81" s="3">
         <v>51000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>43000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>36000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>49000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>31000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>42000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,8 +6610,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6421,58 +6620,58 @@
         <v>36000</v>
       </c>
       <c r="E83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F83" s="3">
         <v>39000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>42000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>48000</v>
       </c>
       <c r="N83" s="3">
         <v>48000</v>
       </c>
       <c r="O83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="P83" s="3">
         <v>50000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>16000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>11000</v>
       </c>
       <c r="W83" s="3">
         <v>11000</v>
@@ -6481,25 +6680,28 @@
         <v>11000</v>
       </c>
       <c r="Y83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>13000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>11000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>12000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>10000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>12000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E89" s="3">
         <v>82000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>145000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>128000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>141000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>118000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>103000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>134000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>189000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>231000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>367000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>69000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>116000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>178000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>86000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-12000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>88000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>84000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>80000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-35000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>88000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>62000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>153000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,8 +7266,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7055,85 +7276,88 @@
         <v>-6000</v>
       </c>
       <c r="E91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-18000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>336000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-252000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1202000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-30000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1005000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,34 +7655,35 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-21000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-21000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-20000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-21000</v>
       </c>
       <c r="J96" s="3">
         <v>-21000</v>
       </c>
       <c r="K96" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="L96" s="3">
         <v>-22000</v>
@@ -7458,28 +7692,28 @@
         <v>-22000</v>
       </c>
       <c r="N96" s="3">
-        <v>-21000</v>
+        <v>-22000</v>
       </c>
       <c r="O96" s="3">
         <v>-21000</v>
       </c>
       <c r="P96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-22000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-21000</v>
       </c>
       <c r="S96" s="3">
         <v>-21000</v>
       </c>
       <c r="T96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-23000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-13000</v>
       </c>
       <c r="V96" s="3">
         <v>-13000</v>
@@ -7488,28 +7722,31 @@
         <v>-13000</v>
       </c>
       <c r="X96" s="3">
-        <v>-14000</v>
+        <v>-13000</v>
       </c>
       <c r="Y96" s="3">
         <v>-14000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-12000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-14000</v>
       </c>
       <c r="AB96" s="3">
         <v>-14000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-13000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,94 +8009,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-105000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-76000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-168000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-87000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-162000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-125000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-103000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-95000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-239000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-162000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>927000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-125000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-234000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1027000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-23000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-58000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-87000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-88000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-53000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-61000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7938,90 +8187,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E102" s="3">
         <v>313000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>56000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-46000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-50000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-138000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>90000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-79000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>92000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-86000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>44000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>88000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-46000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-66000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>7000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>88000</v>
       </c>
     </row>
